--- a/海关统计数据汇总.xlsx
+++ b/海关统计数据汇总.xlsx
@@ -7,12 +7,19 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="北京市" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="上海市" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="深圳市" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="南京市" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="合肥市" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="浙江省" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="全国" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="北京市" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="上海市" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="深圳市" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="南京市" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="合肥市" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="浙江省" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="杭州市" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="宁波市" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="温州市" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="湖州市" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="金华市" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="台州市" sheetId="13" state="visible" r:id="rId13"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -430,7 +437,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:M19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,32 +453,62 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>进出口</t>
+          <t>进出口_当月</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>进出口同比</t>
+          <t>进出口_当月同比</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>出口</t>
+          <t>进出口_年初至今</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>出口同比</t>
+          <t>进出口_年初至今同比</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>进口</t>
+          <t>进口_当月</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>进口同比</t>
+          <t>进口_当月同比</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>进口_年初至今</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>进口_年初至今同比</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>出口_当月</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>出口_当月同比</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>出口_年初至今</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>出口_年初至今同比</t>
         </is>
       </c>
     </row>
@@ -482,17 +519,29 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>30863996</v>
+        <v>376356483</v>
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="n">
-        <v>4921932</v>
+        <v>376356483</v>
       </c>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="n">
-        <v>25942064</v>
+        <v>218622834</v>
       </c>
       <c r="G2" t="inlineStr"/>
+      <c r="H2" t="n">
+        <v>218622834</v>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="n">
+        <v>157733650</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>157733650</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -501,17 +550,29 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>27080358</v>
+        <v>285022192</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="n">
-        <v>4110126</v>
+        <v>661378675</v>
       </c>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="n">
-        <v>22970233</v>
+        <v>156609573</v>
       </c>
       <c r="G3" t="inlineStr"/>
+      <c r="H3" t="n">
+        <v>375232407</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>128412619</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>286146269</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -520,17 +581,29 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>32983103</v>
+        <v>355795902</v>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="n">
-        <v>5577831</v>
+        <v>1016929821</v>
       </c>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="n">
-        <v>27405272</v>
+        <v>198691029</v>
       </c>
       <c r="G4" t="inlineStr"/>
+      <c r="H4" t="n">
+        <v>573782193</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>157104873</v>
+      </c>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>443147628</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -539,17 +612,29 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>31804178</v>
+        <v>363894555</v>
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="n">
-        <v>4667960</v>
+        <v>1380532049</v>
       </c>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="n">
-        <v>27136217</v>
+        <v>207619879</v>
       </c>
       <c r="G5" t="inlineStr"/>
+      <c r="H5" t="n">
+        <v>781132017</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>156274676</v>
+      </c>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>599400031</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -558,17 +643,29 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>32817642</v>
+        <v>370772992</v>
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="n">
-        <v>5305544</v>
+        <v>1750424634</v>
       </c>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="n">
-        <v>27512098</v>
+        <v>214706297</v>
       </c>
       <c r="G6" t="inlineStr"/>
+      <c r="H6" t="n">
+        <v>995015929</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>156066695</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>755408706</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -577,17 +674,29 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>27824523</v>
+        <v>367054282</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="n">
-        <v>5414045</v>
+        <v>2116881741</v>
       </c>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="n">
-        <v>22410477</v>
+        <v>218713476</v>
       </c>
       <c r="G7" t="inlineStr"/>
+      <c r="H7" t="n">
+        <v>1212983528</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>148340807</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>903898213</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -596,17 +705,29 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>26848079</v>
+        <v>367580159</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="n">
-        <v>5102831</v>
+        <v>2483351781</v>
       </c>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="n">
-        <v>21745248</v>
+        <v>213885246</v>
       </c>
       <c r="G8" t="inlineStr"/>
+      <c r="H8" t="n">
+        <v>1425730334</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>153694913</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1057621447</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -615,17 +736,29 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>29221238</v>
+        <v>375227491</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="n">
-        <v>5294380</v>
+        <v>2858381461</v>
       </c>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="n">
-        <v>23926858</v>
+        <v>220080614</v>
       </c>
       <c r="G9" t="inlineStr"/>
+      <c r="H9" t="n">
+        <v>1645524758</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>155146876</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1212856704</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -634,17 +767,29 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>30382092</v>
+        <v>374798363</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="n">
-        <v>5414705</v>
+        <v>3232518116</v>
       </c>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="n">
-        <v>24967387</v>
+        <v>216530274</v>
       </c>
       <c r="G10" t="inlineStr"/>
+      <c r="H10" t="n">
+        <v>1861473784</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>158268089</v>
+      </c>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1371044332</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -653,17 +798,29 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>28884647</v>
+        <v>370074754</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="n">
-        <v>5028801</v>
+        <v>3602187003</v>
       </c>
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="n">
-        <v>23855845</v>
+        <v>218992309</v>
       </c>
       <c r="G11" t="inlineStr"/>
+      <c r="H11" t="n">
+        <v>2080278717</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>151082445</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1521908287</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -672,17 +829,29 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>31486392</v>
+        <v>375063353</v>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="n">
-        <v>5094282</v>
+        <v>3978606473</v>
       </c>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="n">
-        <v>26392110</v>
+        <v>222171762</v>
       </c>
       <c r="G12" t="inlineStr"/>
+      <c r="H12" t="n">
+        <v>2303831624</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>152891591</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1674774850</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -691,17 +860,29 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>31165048</v>
+        <v>406696046</v>
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="n">
-        <v>5365248</v>
+        <v>4384679258</v>
       </c>
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="n">
-        <v>25799800</v>
+        <v>240993600</v>
       </c>
       <c r="G13" t="inlineStr"/>
+      <c r="H13" t="n">
+        <v>2545453724</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>165702447</v>
+      </c>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1839225534</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -710,22 +891,40 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>21671272</v>
+        <v>367308761</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.2978462024165633</v>
+        <v>-0.0240402979852482</v>
       </c>
       <c r="D14" t="n">
-        <v>5520245</v>
+        <v>367308761</v>
       </c>
       <c r="E14" t="n">
-        <v>0.121560598561703</v>
+        <v>-0.0240402979852482</v>
       </c>
       <c r="F14" t="n">
-        <v>16151027</v>
+        <v>233547828</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.3774193526004715</v>
+        <v>0.06826823038987784</v>
+      </c>
+      <c r="H14" t="n">
+        <v>233547828</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.06826823038987784</v>
+      </c>
+      <c r="J14" t="n">
+        <v>133760933</v>
+      </c>
+      <c r="K14" t="n">
+        <v>-0.1519822625039109</v>
+      </c>
+      <c r="L14" t="n">
+        <v>133760933</v>
+      </c>
+      <c r="M14" t="n">
+        <v>-0.1519822625039109</v>
       </c>
     </row>
     <row r="15">
@@ -735,22 +934,40 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>23663498</v>
+        <v>286327020</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.12617484598985</v>
+        <v>0.004577987387031301</v>
       </c>
       <c r="D15" t="n">
-        <v>3957481</v>
+        <v>653635780</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.03713876411574735</v>
+        <v>-0.01170720389495472</v>
       </c>
       <c r="F15" t="n">
-        <v>19706017</v>
+        <v>154573252</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.1421063512938681</v>
+        <v>-0.01300253209936275</v>
+      </c>
+      <c r="H15" t="n">
+        <v>388121080</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.03434850711068771</v>
+      </c>
+      <c r="J15" t="n">
+        <v>131753768</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0.0260188525552929</v>
+      </c>
+      <c r="L15" t="n">
+        <v>265514701</v>
+      </c>
+      <c r="M15" t="n">
+        <v>-0.07210147478805673</v>
       </c>
     </row>
     <row r="16">
@@ -760,22 +977,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>26719065</v>
+        <v>376625858</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.1899165763754853</v>
+        <v>0.0585446765488602</v>
       </c>
       <c r="D16" t="n">
-        <v>5391745</v>
+        <v>1030132241</v>
       </c>
       <c r="E16" t="n">
-        <v>-0.03336171354062178</v>
+        <v>0.01298262645795689</v>
       </c>
       <c r="F16" t="n">
-        <v>21327320</v>
+        <v>225149118</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.2217803932031763</v>
+        <v>0.1331619707903371</v>
+      </c>
+      <c r="H16" t="n">
+        <v>613137191</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.06858874060596709</v>
+      </c>
+      <c r="J16" t="n">
+        <v>151476740</v>
+      </c>
+      <c r="K16" t="n">
+        <v>-0.03582405111011422</v>
+      </c>
+      <c r="L16" t="n">
+        <v>416995051</v>
+      </c>
+      <c r="M16" t="n">
+        <v>-0.05901549584735677</v>
       </c>
     </row>
     <row r="17">
@@ -785,22 +1020,40 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>27835800</v>
+        <v>383906469</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.1247753675633434</v>
+        <v>0.05499371651768747</v>
       </c>
       <c r="D17" t="n">
-        <v>5299532</v>
+        <v>1413892816</v>
       </c>
       <c r="E17" t="n">
-        <v>0.1352993598916872</v>
+        <v>0.02416515214128134</v>
       </c>
       <c r="F17" t="n">
-        <v>22536267</v>
+        <v>226452588</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.169513311306436</v>
+        <v>0.09070763883837918</v>
+      </c>
+      <c r="H17" t="n">
+        <v>839377108</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.07456497715161503</v>
+      </c>
+      <c r="J17" t="n">
+        <v>157453881</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0.007545720331552541</v>
+      </c>
+      <c r="L17" t="n">
+        <v>574515707</v>
+      </c>
+      <c r="M17" t="n">
+        <v>-0.04151538657494669</v>
       </c>
     </row>
     <row r="18">
@@ -810,22 +1063,40 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>26928178</v>
+        <v>380981114</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.1794603036988459</v>
+        <v>0.02753199995753741</v>
       </c>
       <c r="D18" t="n">
-        <v>5095601</v>
+        <v>1794485145</v>
       </c>
       <c r="E18" t="n">
-        <v>-0.03957049456191486</v>
+        <v>0.02517132708496828</v>
       </c>
       <c r="F18" t="n">
-        <v>21832577</v>
+        <v>227668397</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.2064372190008918</v>
+        <v>0.06037130806647939</v>
+      </c>
+      <c r="H18" t="n">
+        <v>1066818788</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.07216252213385421</v>
+      </c>
+      <c r="J18" t="n">
+        <v>153312716</v>
+      </c>
+      <c r="K18" t="n">
+        <v>-0.01764616723638568</v>
+      </c>
+      <c r="L18" t="n">
+        <v>727666357</v>
+      </c>
+      <c r="M18" t="n">
+        <v>-0.03672495270394727</v>
       </c>
     </row>
     <row r="19">
@@ -835,22 +1106,2904 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>26692034</v>
+        <v>385359633</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.04070111103072638</v>
+        <v>0.04987096431693439</v>
       </c>
       <c r="D19" t="n">
-        <v>5163395</v>
+        <v>2178840677</v>
       </c>
       <c r="E19" t="n">
-        <v>-0.04629625354055977</v>
+        <v>0.02926896425056369</v>
       </c>
       <c r="F19" t="n">
-        <v>21528639</v>
+        <v>233971307</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.03934936324648508</v>
+        <v>0.0697617324686477</v>
+      </c>
+      <c r="H19" t="n">
+        <v>1300038881</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.07176960856470926</v>
+      </c>
+      <c r="J19" t="n">
+        <v>151388327</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0.02054404355505501</v>
+      </c>
+      <c r="L19" t="n">
+        <v>878801796</v>
+      </c>
+      <c r="M19" t="n">
+        <v>-0.02776464942518919</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:M19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>进出口_当月</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>进出口_当月同比</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>进出口_年初至今</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>进出口_年初至今同比</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>进口_当月</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>进口_当月同比</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>进口_年初至今</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>进口_年初至今同比</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>出口_当月</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>出口_当月同比</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>出口_年初至今</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>出口_年初至今同比</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2024-01</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>2862197</v>
+      </c>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="n">
+        <v>2862197</v>
+      </c>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="n">
+        <v>2385390</v>
+      </c>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="n">
+        <v>2385390</v>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="n">
+        <v>476807</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>476807</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2024-02</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>1834891</v>
+      </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="n">
+        <v>4697088</v>
+      </c>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="n">
+        <v>1438717</v>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="n">
+        <v>3824108</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>396173</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>872980</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2024-03</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>1712975</v>
+      </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="n">
+        <v>6409023</v>
+      </c>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="n">
+        <v>1340382</v>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="n">
+        <v>5164439</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>372593</v>
+      </c>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1244585</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2024-04</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>2359272</v>
+      </c>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="n">
+        <v>8766845</v>
+      </c>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="n">
+        <v>2023624</v>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="n">
+        <v>7188011</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>335648</v>
+      </c>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1578834</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2024-05</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>2548545</v>
+      </c>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="n">
+        <v>11314158</v>
+      </c>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="n">
+        <v>2166813</v>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="n">
+        <v>9354325</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>381731</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1959833</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2024-06</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>2711746</v>
+      </c>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="n">
+        <v>13929424</v>
+      </c>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="n">
+        <v>2415331</v>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="n">
+        <v>11674064</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>296415</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>2255359</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2024-07</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>2673366</v>
+      </c>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="n">
+        <v>16571170</v>
+      </c>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="n">
+        <v>2252951</v>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="n">
+        <v>13896709</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>420416</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>2674461</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2024-08</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>2867942</v>
+      </c>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="n">
+        <v>19432124</v>
+      </c>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="n">
+        <v>2547360</v>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="n">
+        <v>16438488</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>320582</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>2993636</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2024-09</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>2621875</v>
+      </c>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="n">
+        <v>22051381</v>
+      </c>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="n">
+        <v>2256027</v>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="n">
+        <v>18694345</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>365848</v>
+      </c>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>3357036</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2024-10</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>2618862</v>
+      </c>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="n">
+        <v>24668270</v>
+      </c>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="n">
+        <v>2352052</v>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="n">
+        <v>21045329</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>266811</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>3622941</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2024-11</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>2387059</v>
+      </c>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="n">
+        <v>27058879</v>
+      </c>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="n">
+        <v>2069792</v>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="n">
+        <v>23119745</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>317268</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>3939134</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2024-12</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>2308726</v>
+      </c>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="n">
+        <v>29365779</v>
+      </c>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="n">
+        <v>2076374</v>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="n">
+        <v>25197672</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>232352</v>
+      </c>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>4168107</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>2025-01</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>3147390</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.09964128954086671</v>
+      </c>
+      <c r="D14" t="n">
+        <v>3147390</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.09964128954086671</v>
+      </c>
+      <c r="F14" t="n">
+        <v>2908001</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.2190882832576644</v>
+      </c>
+      <c r="H14" t="n">
+        <v>2908001</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.2190882832576644</v>
+      </c>
+      <c r="J14" t="n">
+        <v>239390</v>
+      </c>
+      <c r="K14" t="n">
+        <v>-0.4979310286971458</v>
+      </c>
+      <c r="L14" t="n">
+        <v>239390</v>
+      </c>
+      <c r="M14" t="n">
+        <v>-0.4979310286971458</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>2025-02</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>1484781</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-0.1908069743652347</v>
+      </c>
+      <c r="D15" t="n">
+        <v>4632171</v>
+      </c>
+      <c r="E15" t="n">
+        <v>-0.01382069060660562</v>
+      </c>
+      <c r="F15" t="n">
+        <v>1235976</v>
+      </c>
+      <c r="G15" t="n">
+        <v>-0.1409179150590422</v>
+      </c>
+      <c r="H15" t="n">
+        <v>4143977</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.08364538867626115</v>
+      </c>
+      <c r="J15" t="n">
+        <v>248805</v>
+      </c>
+      <c r="K15" t="n">
+        <v>-0.3719789082042441</v>
+      </c>
+      <c r="L15" t="n">
+        <v>488195</v>
+      </c>
+      <c r="M15" t="n">
+        <v>-0.440771838988293</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2025-03</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>2191227</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.279193800259782</v>
+      </c>
+      <c r="D16" t="n">
+        <v>6822174</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.0644639596394021</v>
+      </c>
+      <c r="F16" t="n">
+        <v>1728908</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.2898621437769233</v>
+      </c>
+      <c r="H16" t="n">
+        <v>5871807</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.1369689912108556</v>
+      </c>
+      <c r="J16" t="n">
+        <v>462319</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0.2408150448344439</v>
+      </c>
+      <c r="L16" t="n">
+        <v>950367</v>
+      </c>
+      <c r="M16" t="n">
+        <v>-0.2363984782075953</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>2025-04</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>2657518</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.1264144193632613</v>
+      </c>
+      <c r="D17" t="n">
+        <v>9477376</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.0810475148129115</v>
+      </c>
+      <c r="F17" t="n">
+        <v>2206062</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.09015409977347577</v>
+      </c>
+      <c r="H17" t="n">
+        <v>8077903</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.1238022590672163</v>
+      </c>
+      <c r="J17" t="n">
+        <v>451455</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0.345025145390409</v>
+      </c>
+      <c r="L17" t="n">
+        <v>1399473</v>
+      </c>
+      <c r="M17" t="n">
+        <v>-0.1136034567281931</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>2025-05</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>2665653</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.04595092493952424</v>
+      </c>
+      <c r="D18" t="n">
+        <v>12141199</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.07309788320085331</v>
+      </c>
+      <c r="F18" t="n">
+        <v>2346417</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.08288855568062403</v>
+      </c>
+      <c r="H18" t="n">
+        <v>10423949</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.1143453963808185</v>
+      </c>
+      <c r="J18" t="n">
+        <v>319236</v>
+      </c>
+      <c r="K18" t="n">
+        <v>-0.1637147624898161</v>
+      </c>
+      <c r="L18" t="n">
+        <v>1717250</v>
+      </c>
+      <c r="M18" t="n">
+        <v>-0.1237773830729455</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>2025-06</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>2817350</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.03894317535639402</v>
+      </c>
+      <c r="D19" t="n">
+        <v>14955294</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.07364769713377961</v>
+      </c>
+      <c r="F19" t="n">
+        <v>2450976</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.01475781166225243</v>
+      </c>
+      <c r="H19" t="n">
+        <v>12874140</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.1027984770342187</v>
+      </c>
+      <c r="J19" t="n">
+        <v>366374</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0.2360170706610665</v>
+      </c>
+      <c r="L19" t="n">
+        <v>2081154</v>
+      </c>
+      <c r="M19" t="n">
+        <v>-0.07724047479802554</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:M19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>进出口_当月</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>进出口_当月同比</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>进出口_年初至今</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>进出口_年初至今同比</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>进口_当月</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>进口_当月同比</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>进口_年初至今</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>进口_年初至今同比</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>出口_当月</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>出口_当月同比</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>出口_年初至今</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>出口_年初至今同比</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2024-01</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>1718847</v>
+      </c>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="n">
+        <v>1718847</v>
+      </c>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="n">
+        <v>1625083</v>
+      </c>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="n">
+        <v>1625083</v>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="n">
+        <v>93765</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>93765</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2024-02</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>1194360</v>
+      </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="n">
+        <v>2913207</v>
+      </c>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="n">
+        <v>1107535</v>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="n">
+        <v>2732618</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>86825</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>180589</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2024-03</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>1892203</v>
+      </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="n">
+        <v>4805414</v>
+      </c>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="n">
+        <v>1788172</v>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="n">
+        <v>4520793</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>104032</v>
+      </c>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>284621</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2024-04</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>1293170</v>
+      </c>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="n">
+        <v>6098401</v>
+      </c>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="n">
+        <v>1161250</v>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="n">
+        <v>5681635</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>131920</v>
+      </c>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>416766</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2024-05</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>1344342</v>
+      </c>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="n">
+        <v>7444436</v>
+      </c>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="n">
+        <v>1228097</v>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="n">
+        <v>6909300</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>116245</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>535136</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2024-06</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>1407173</v>
+      </c>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="n">
+        <v>8851047</v>
+      </c>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="n">
+        <v>1291077</v>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="n">
+        <v>8199915</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>116096</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>651132</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2024-07</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>1373315</v>
+      </c>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="n">
+        <v>10052110</v>
+      </c>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="n">
+        <v>1242362</v>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="n">
+        <v>9270085</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>130952</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>782025</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2024-08</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>1369896</v>
+      </c>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="n">
+        <v>11408688</v>
+      </c>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="n">
+        <v>1250345</v>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="n">
+        <v>10521601</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>119551</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>887087</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2024-09</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>1207988</v>
+      </c>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="n">
+        <v>12616303</v>
+      </c>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="n">
+        <v>1078533</v>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="n">
+        <v>11599778</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>129454</v>
+      </c>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1016526</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2024-10</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>1224484</v>
+      </c>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="n">
+        <v>13840037</v>
+      </c>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="n">
+        <v>1142813</v>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="n">
+        <v>12742284</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>81671</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1097753</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2024-11</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>1360242</v>
+      </c>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="n">
+        <v>15198768</v>
+      </c>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="n">
+        <v>1285558</v>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="n">
+        <v>14026814</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>74684</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1171954</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2024-12</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>1441334</v>
+      </c>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="n">
+        <v>16640128</v>
+      </c>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="n">
+        <v>1279404</v>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="n">
+        <v>15306206</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>161930</v>
+      </c>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1333922</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>2025-01</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>1805876</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.0506321970483703</v>
+      </c>
+      <c r="D14" t="n">
+        <v>1805876</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.0506321970483703</v>
+      </c>
+      <c r="F14" t="n">
+        <v>1728539</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.06366197911122073</v>
+      </c>
+      <c r="H14" t="n">
+        <v>1728539</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.06366197911122073</v>
+      </c>
+      <c r="J14" t="n">
+        <v>77338</v>
+      </c>
+      <c r="K14" t="n">
+        <v>-0.1751933024049486</v>
+      </c>
+      <c r="L14" t="n">
+        <v>77338</v>
+      </c>
+      <c r="M14" t="n">
+        <v>-0.1751933024049486</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>2025-02</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>983758</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-0.1763304196389698</v>
+      </c>
+      <c r="D15" t="n">
+        <v>2789635</v>
+      </c>
+      <c r="E15" t="n">
+        <v>-0.04241785770801731</v>
+      </c>
+      <c r="F15" t="n">
+        <v>900478</v>
+      </c>
+      <c r="G15" t="n">
+        <v>-0.1869530082570754</v>
+      </c>
+      <c r="H15" t="n">
+        <v>2629017</v>
+      </c>
+      <c r="I15" t="n">
+        <v>-0.03791272691609293</v>
+      </c>
+      <c r="J15" t="n">
+        <v>83280</v>
+      </c>
+      <c r="K15" t="n">
+        <v>-0.04082925424704864</v>
+      </c>
+      <c r="L15" t="n">
+        <v>160618</v>
+      </c>
+      <c r="M15" t="n">
+        <v>-0.1105881310600313</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2025-03</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>2311761</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.2217299095287344</v>
+      </c>
+      <c r="D16" t="n">
+        <v>5101282</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.0615697211520172</v>
+      </c>
+      <c r="F16" t="n">
+        <v>2203938</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.2325089532774252</v>
+      </c>
+      <c r="H16" t="n">
+        <v>4832926</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.06904386022540732</v>
+      </c>
+      <c r="J16" t="n">
+        <v>107824</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0.03645032297754547</v>
+      </c>
+      <c r="L16" t="n">
+        <v>268356</v>
+      </c>
+      <c r="M16" t="n">
+        <v>-0.05714616981881171</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>2025-04</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>1450659</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.1217852254537299</v>
+      </c>
+      <c r="D17" t="n">
+        <v>6551277</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.07426143344788239</v>
+      </c>
+      <c r="F17" t="n">
+        <v>1339451</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.1534561894510227</v>
+      </c>
+      <c r="H17" t="n">
+        <v>6171912</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.08629153403905732</v>
+      </c>
+      <c r="J17" t="n">
+        <v>111208</v>
+      </c>
+      <c r="K17" t="n">
+        <v>-0.1570042449969679</v>
+      </c>
+      <c r="L17" t="n">
+        <v>379365</v>
+      </c>
+      <c r="M17" t="n">
+        <v>-0.08974100574423061</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>2025-05</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>1352808</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.006297504652833963</v>
+      </c>
+      <c r="D18" t="n">
+        <v>7903794</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.06170487596373997</v>
+      </c>
+      <c r="F18" t="n">
+        <v>1242429</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.01167008794907898</v>
+      </c>
+      <c r="H18" t="n">
+        <v>7414116</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.0730632625591594</v>
+      </c>
+      <c r="J18" t="n">
+        <v>110379</v>
+      </c>
+      <c r="K18" t="n">
+        <v>-0.05046238547894533</v>
+      </c>
+      <c r="L18" t="n">
+        <v>489677</v>
+      </c>
+      <c r="M18" t="n">
+        <v>-0.08494849907313284</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>2025-06</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>1310849</v>
+      </c>
+      <c r="C19" t="n">
+        <v>-0.06845213772578074</v>
+      </c>
+      <c r="D19" t="n">
+        <v>9213730</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.04097628224095984</v>
+      </c>
+      <c r="F19" t="n">
+        <v>1202355</v>
+      </c>
+      <c r="G19" t="n">
+        <v>-0.06871937150146734</v>
+      </c>
+      <c r="H19" t="n">
+        <v>8615873</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.05072711119566486</v>
+      </c>
+      <c r="J19" t="n">
+        <v>108494</v>
+      </c>
+      <c r="K19" t="n">
+        <v>-0.06548029217199558</v>
+      </c>
+      <c r="L19" t="n">
+        <v>597857</v>
+      </c>
+      <c r="M19" t="n">
+        <v>-0.08181904744352908</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:M19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>进出口_当月</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>进出口_当月同比</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>进出口_年初至今</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>进出口_年初至今同比</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>进口_当月</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>进口_当月同比</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>进口_年初至今</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>进口_年初至今同比</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>出口_当月</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>出口_当月同比</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>出口_年初至今</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>出口_年初至今同比</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2024-01</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>9676520</v>
+      </c>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="n">
+        <v>9676520</v>
+      </c>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="n">
+        <v>8563161</v>
+      </c>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="n">
+        <v>8563161</v>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="n">
+        <v>1113359</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1113359</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2024-02</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>5140755</v>
+      </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="n">
+        <v>14817275</v>
+      </c>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="n">
+        <v>4498491</v>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="n">
+        <v>13061651</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>642265</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1755623</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2024-03</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>4490765</v>
+      </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="n">
+        <v>19307406</v>
+      </c>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="n">
+        <v>3771684</v>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="n">
+        <v>16832918</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>719082</v>
+      </c>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>2474488</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2024-04</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>6849682</v>
+      </c>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="n">
+        <v>26156344</v>
+      </c>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="n">
+        <v>6190529</v>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="n">
+        <v>23023094</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>659153</v>
+      </c>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>3133250</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2024-05</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>8205122</v>
+      </c>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="n">
+        <v>34361516</v>
+      </c>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="n">
+        <v>7420170</v>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="n">
+        <v>30443100</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>784952</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>3918416</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2024-06</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>7999945</v>
+      </c>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="n">
+        <v>42359554</v>
+      </c>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="n">
+        <v>7159690</v>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="n">
+        <v>37601031</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>840255</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>4758523</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2024-07</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>7355638</v>
+      </c>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="n">
+        <v>49712091</v>
+      </c>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="n">
+        <v>6437695</v>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="n">
+        <v>44034938</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>917943</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>5677152</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2024-08</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>8530538</v>
+      </c>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="n">
+        <v>58230791</v>
+      </c>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="n">
+        <v>7533510</v>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="n">
+        <v>51568340</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>997027</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>6662451</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2024-09</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>7325221</v>
+      </c>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="n">
+        <v>65553563</v>
+      </c>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="n">
+        <v>6231527</v>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="n">
+        <v>57798405</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>1093695</v>
+      </c>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>7755158</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2024-10</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>7918945</v>
+      </c>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="n">
+        <v>73471102</v>
+      </c>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="n">
+        <v>6912673</v>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="n">
+        <v>64709595</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>1006272</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>8761507</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2024-11</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>7160364</v>
+      </c>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="n">
+        <v>80633562</v>
+      </c>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="n">
+        <v>6277011</v>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="n">
+        <v>70988287</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>883354</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>9645275</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2024-12</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>7319095</v>
+      </c>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="n">
+        <v>87949043</v>
+      </c>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="n">
+        <v>6207268</v>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="n">
+        <v>77191846</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>1111827</v>
+      </c>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>10757197</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>2025-01</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>11236065</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.161167961209195</v>
+      </c>
+      <c r="D14" t="n">
+        <v>11236065</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.161167961209195</v>
+      </c>
+      <c r="F14" t="n">
+        <v>10430489</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.2180652681877639</v>
+      </c>
+      <c r="H14" t="n">
+        <v>10430489</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.2180652681877639</v>
+      </c>
+      <c r="J14" t="n">
+        <v>805576</v>
+      </c>
+      <c r="K14" t="n">
+        <v>-0.2764454232641942</v>
+      </c>
+      <c r="L14" t="n">
+        <v>805576</v>
+      </c>
+      <c r="M14" t="n">
+        <v>-0.2764454232641942</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>2025-02</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>3522094</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-0.3148683413234048</v>
+      </c>
+      <c r="D15" t="n">
+        <v>14758158</v>
+      </c>
+      <c r="E15" t="n">
+        <v>-0.003989734954639057</v>
+      </c>
+      <c r="F15" t="n">
+        <v>2761130</v>
+      </c>
+      <c r="G15" t="n">
+        <v>-0.3862097312187576</v>
+      </c>
+      <c r="H15" t="n">
+        <v>13191619</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.009950350074427794</v>
+      </c>
+      <c r="J15" t="n">
+        <v>760964</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0.1848131223093272</v>
+      </c>
+      <c r="L15" t="n">
+        <v>1566540</v>
+      </c>
+      <c r="M15" t="n">
+        <v>-0.1077013686879245</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2025-03</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>6936138</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.5445337264363643</v>
+      </c>
+      <c r="D16" t="n">
+        <v>21692280</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.1235212021749581</v>
+      </c>
+      <c r="F16" t="n">
+        <v>6028396</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.5983300827959077</v>
+      </c>
+      <c r="H16" t="n">
+        <v>19219393</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.1417742901141679</v>
+      </c>
+      <c r="J16" t="n">
+        <v>907742</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0.2623622896971416</v>
+      </c>
+      <c r="L16" t="n">
+        <v>2472886</v>
+      </c>
+      <c r="M16" t="n">
+        <v>-0.0006474066554373881</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>2025-04</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>8063297</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.1771782982042085</v>
+      </c>
+      <c r="D17" t="n">
+        <v>29755544</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.1376033286609168</v>
+      </c>
+      <c r="F17" t="n">
+        <v>7152139</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.1553356748672043</v>
+      </c>
+      <c r="H17" t="n">
+        <v>26370748</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.1454041754770232</v>
+      </c>
+      <c r="J17" t="n">
+        <v>911158</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0.3823163969518457</v>
+      </c>
+      <c r="L17" t="n">
+        <v>3384796</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0.08028277347801804</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>2025-05</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>11395794</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.3888634440779797</v>
+      </c>
+      <c r="D18" t="n">
+        <v>41151663</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.1976090635814787</v>
+      </c>
+      <c r="F18" t="n">
+        <v>10307698</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.3891458012417506</v>
+      </c>
+      <c r="H18" t="n">
+        <v>36678000</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.2048050297111661</v>
+      </c>
+      <c r="J18" t="n">
+        <v>1088097</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0.3861955890296476</v>
+      </c>
+      <c r="L18" t="n">
+        <v>4473663</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0.1417019019930503</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>2025-06</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>9718339</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.2148007267549965</v>
+      </c>
+      <c r="D19" t="n">
+        <v>50867862</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.2008592441742896</v>
+      </c>
+      <c r="F19" t="n">
+        <v>8660194</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.2095766716156706</v>
+      </c>
+      <c r="H19" t="n">
+        <v>45336573</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.2057268589257566</v>
+      </c>
+      <c r="J19" t="n">
+        <v>1058145</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0.2593141367799061</v>
+      </c>
+      <c r="L19" t="n">
+        <v>5531289</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0.1623961889014722</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:M19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>进出口_当月</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>进出口_当月同比</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>进出口_年初至今</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>进出口_年初至今同比</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>进口_当月</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>进口_当月同比</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>进口_年初至今</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>进口_年初至今同比</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>出口_当月</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>出口_当月同比</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>出口_年初至今</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>出口_年初至今同比</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2024-01</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>2537508</v>
+      </c>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="n">
+        <v>2537508</v>
+      </c>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="n">
+        <v>2342152</v>
+      </c>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="n">
+        <v>2342152</v>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="n">
+        <v>195356</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>195356</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2024-02</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>1529178</v>
+      </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="n">
+        <v>4066686</v>
+      </c>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="n">
+        <v>1401450</v>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="n">
+        <v>3743602</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>127728</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>323084</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2024-03</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>2071744</v>
+      </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="n">
+        <v>6137443</v>
+      </c>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="n">
+        <v>1851142</v>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="n">
+        <v>5594473</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>220603</v>
+      </c>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>542970</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2024-04</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>2206112</v>
+      </c>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="n">
+        <v>8342670</v>
+      </c>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="n">
+        <v>2007179</v>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="n">
+        <v>7601665</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>198933</v>
+      </c>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>741005</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2024-05</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>2295954</v>
+      </c>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="n">
+        <v>10637922</v>
+      </c>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="n">
+        <v>2080100</v>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="n">
+        <v>9681364</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>215854</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>956558</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2024-06</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>2501326</v>
+      </c>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="n">
+        <v>13135001</v>
+      </c>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="n">
+        <v>2302508</v>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="n">
+        <v>11983359</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>198817</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1151642</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2024-07</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>2293561</v>
+      </c>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="n">
+        <v>15425536</v>
+      </c>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="n">
+        <v>2072787</v>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="n">
+        <v>14055198</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>220774</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1370338</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2024-08</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>2293729</v>
+      </c>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="n">
+        <v>17716277</v>
+      </c>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="n">
+        <v>2106334</v>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="n">
+        <v>16161238</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>187395</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1555039</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2024-09</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>1981778</v>
+      </c>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="n">
+        <v>19695630</v>
+      </c>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="n">
+        <v>1802808</v>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="n">
+        <v>17962363</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>178970</v>
+      </c>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1733267</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2024-10</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>2108577</v>
+      </c>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="n">
+        <v>21801156</v>
+      </c>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="n">
+        <v>1889631</v>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="n">
+        <v>19848787</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>218946</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1952369</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2024-11</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>2160212</v>
+      </c>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="n">
+        <v>23964821</v>
+      </c>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="n">
+        <v>1956045</v>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="n">
+        <v>21808168</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>204166</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>2156653</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2024-12</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>2253245</v>
+      </c>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="n">
+        <v>26257951</v>
+      </c>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="n">
+        <v>2009908</v>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="n">
+        <v>23857958</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>243338</v>
+      </c>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>2399993</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>2025-01</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>3182131</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.254037819782243</v>
+      </c>
+      <c r="D14" t="n">
+        <v>3182131</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.254037819782243</v>
+      </c>
+      <c r="F14" t="n">
+        <v>2990893</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.2769850120743658</v>
+      </c>
+      <c r="H14" t="n">
+        <v>2990893</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.2769850120743658</v>
+      </c>
+      <c r="J14" t="n">
+        <v>191238</v>
+      </c>
+      <c r="K14" t="n">
+        <v>-0.02107946518151482</v>
+      </c>
+      <c r="L14" t="n">
+        <v>191238</v>
+      </c>
+      <c r="M14" t="n">
+        <v>-0.02107946518151482</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>2025-02</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>1397591</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-0.08605080638094453</v>
+      </c>
+      <c r="D15" t="n">
+        <v>4579723</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.1261560395860413</v>
+      </c>
+      <c r="F15" t="n">
+        <v>1213784</v>
+      </c>
+      <c r="G15" t="n">
+        <v>-0.1339084519604695</v>
+      </c>
+      <c r="H15" t="n">
+        <v>4204677</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.1231634666291983</v>
+      </c>
+      <c r="J15" t="n">
+        <v>183808</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0.4390579982462732</v>
+      </c>
+      <c r="L15" t="n">
+        <v>375046</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0.1608312389347661</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2025-03</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>2656782</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.2823891368817768</v>
+      </c>
+      <c r="D16" t="n">
+        <v>7236392</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.1790564898117994</v>
+      </c>
+      <c r="F16" t="n">
+        <v>2433905</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.3148126940018647</v>
+      </c>
+      <c r="H16" t="n">
+        <v>6638435</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.1866059591314499</v>
+      </c>
+      <c r="J16" t="n">
+        <v>222877</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0.01030811004383447</v>
+      </c>
+      <c r="L16" t="n">
+        <v>597957</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0.1012707884413504</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>2025-04</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>2319293</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.05130337897622606</v>
+      </c>
+      <c r="D17" t="n">
+        <v>9555483</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.1453746822060564</v>
+      </c>
+      <c r="F17" t="n">
+        <v>2074661</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.03362031986185587</v>
+      </c>
+      <c r="H17" t="n">
+        <v>8712678</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.1461539018096694</v>
+      </c>
+      <c r="J17" t="n">
+        <v>244632</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0.2297205591832425</v>
+      </c>
+      <c r="L17" t="n">
+        <v>842806</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0.137382338850615</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>2025-05</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>2539759</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.1061889741693431</v>
+      </c>
+      <c r="D18" t="n">
+        <v>12095407</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.1370084307818764</v>
+      </c>
+      <c r="F18" t="n">
+        <v>2351328</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.1303918080861497</v>
+      </c>
+      <c r="H18" t="n">
+        <v>11064172</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.1428319397969129</v>
+      </c>
+      <c r="J18" t="n">
+        <v>188431</v>
+      </c>
+      <c r="K18" t="n">
+        <v>-0.1270442058057761</v>
+      </c>
+      <c r="L18" t="n">
+        <v>1031235</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0.07806844958695658</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>2025-06</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>2682061</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.07225567558966728</v>
+      </c>
+      <c r="D19" t="n">
+        <v>14777120</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.1250185668048294</v>
+      </c>
+      <c r="F19" t="n">
+        <v>2481040</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.07753805849968809</v>
+      </c>
+      <c r="H19" t="n">
+        <v>13544532</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.1302784135900461</v>
+      </c>
+      <c r="J19" t="n">
+        <v>201021</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0.01108557115337216</v>
+      </c>
+      <c r="L19" t="n">
+        <v>1232588</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0.0702874678068357</v>
       </c>
     </row>
   </sheetData>
@@ -864,7 +4017,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:M19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -880,32 +4033,62 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>进出口</t>
+          <t>进出口_当月</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>进出口同比</t>
+          <t>进出口_当月同比</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>出口</t>
+          <t>进出口_年初至今</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>出口同比</t>
+          <t>进出口_年初至今同比</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>进口</t>
+          <t>进口_当月</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>进口同比</t>
+          <t>进口_当月同比</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>进口_年初至今</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>进口_年初至今同比</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>出口_当月</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>出口_当月同比</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>出口_年初至今</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>出口_年初至今同比</t>
         </is>
       </c>
     </row>
@@ -916,17 +4099,29 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>38821399</v>
+        <v>30863996</v>
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="n">
-        <v>14941937</v>
+        <v>30863996</v>
       </c>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="n">
-        <v>23879462</v>
+        <v>4921932</v>
       </c>
       <c r="G2" t="inlineStr"/>
+      <c r="H2" t="n">
+        <v>4921932</v>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="n">
+        <v>25942064</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>25942064</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -935,17 +4130,29 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>28786450</v>
+        <v>27080358</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="n">
-        <v>11649338</v>
+        <v>57944354</v>
       </c>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="n">
-        <v>17137111</v>
+        <v>4110126</v>
       </c>
       <c r="G3" t="inlineStr"/>
+      <c r="H3" t="n">
+        <v>9032058</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>22970233</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>48912296</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -954,17 +4161,29 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>35681018</v>
+        <v>32983103</v>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="n">
-        <v>14475069</v>
+        <v>90935991</v>
       </c>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="n">
-        <v>21205949</v>
+        <v>5577831</v>
       </c>
       <c r="G4" t="inlineStr"/>
+      <c r="H4" t="n">
+        <v>14576515</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>27405272</v>
+      </c>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>76359476</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -973,17 +4192,29 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>35725269</v>
+        <v>31804178</v>
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="n">
-        <v>14245760</v>
+        <v>122751929</v>
       </c>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="n">
-        <v>21479509</v>
+        <v>4667960</v>
       </c>
       <c r="G5" t="inlineStr"/>
+      <c r="H5" t="n">
+        <v>19215573</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>27136217</v>
+      </c>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>103536356</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -992,17 +4223,29 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>36028479</v>
+        <v>32817642</v>
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="n">
-        <v>15320150</v>
+        <v>155575070</v>
       </c>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="n">
-        <v>20708328</v>
+        <v>5305544</v>
       </c>
       <c r="G6" t="inlineStr"/>
+      <c r="H6" t="n">
+        <v>24497511</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>27512098</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>131077559</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1011,17 +4254,29 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>34899673</v>
+        <v>27824523</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="n">
-        <v>15138011</v>
+        <v>183345109</v>
       </c>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="n">
-        <v>19761662</v>
+        <v>5414045</v>
       </c>
       <c r="G7" t="inlineStr"/>
+      <c r="H7" t="n">
+        <v>29858438</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>22410477</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>153486671</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1030,17 +4285,29 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>36301058</v>
+        <v>26848079</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="n">
-        <v>15734497</v>
+        <v>210218543</v>
       </c>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="n">
-        <v>20566561</v>
+        <v>5102831</v>
       </c>
       <c r="G8" t="inlineStr"/>
+      <c r="H8" t="n">
+        <v>34944496</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>21745248</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>175274047</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1049,17 +4316,29 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>34707045</v>
+        <v>29221238</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="n">
-        <v>15640025</v>
+        <v>239348913</v>
       </c>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="n">
-        <v>19067020</v>
+        <v>5294380</v>
       </c>
       <c r="G9" t="inlineStr"/>
+      <c r="H9" t="n">
+        <v>40198569</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>23926858</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>199150344</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1068,17 +4347,29 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>36029817</v>
+        <v>30382092</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="n">
-        <v>15793505</v>
+        <v>269647236</v>
       </c>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="n">
-        <v>20236312</v>
+        <v>5414705</v>
       </c>
       <c r="G10" t="inlineStr"/>
+      <c r="H10" t="n">
+        <v>45536475</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>24967387</v>
+      </c>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>224110762</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1087,17 +4378,29 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>35531017</v>
+        <v>28884647</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="n">
-        <v>15506365</v>
+        <v>298466918</v>
       </c>
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="n">
-        <v>20024652</v>
+        <v>5028801</v>
       </c>
       <c r="G11" t="inlineStr"/>
+      <c r="H11" t="n">
+        <v>50516695</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>23855845</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>247950223</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1106,17 +4409,29 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>35001752</v>
+        <v>31486392</v>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="n">
-        <v>15789642</v>
+        <v>329888886</v>
       </c>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="n">
-        <v>19212110</v>
+        <v>5094282</v>
       </c>
       <c r="G12" t="inlineStr"/>
+      <c r="H12" t="n">
+        <v>55490261</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>26392110</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>274398625</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1125,17 +4440,29 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>39290069</v>
+        <v>31165048</v>
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="n">
-        <v>17575763</v>
+        <v>360835223</v>
       </c>
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="n">
-        <v>21714307</v>
+        <v>5365248</v>
       </c>
       <c r="G13" t="inlineStr"/>
+      <c r="H13" t="n">
+        <v>60654836</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>25799800</v>
+      </c>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>300180387</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1144,22 +4471,40 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>33718633</v>
+        <v>21671272</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.1314420946035458</v>
+        <v>-0.2978462024165633</v>
       </c>
       <c r="D14" t="n">
-        <v>16923077</v>
+        <v>21671272</v>
       </c>
       <c r="E14" t="n">
-        <v>0.1325892352510922</v>
+        <v>-0.2978462024165633</v>
       </c>
       <c r="F14" t="n">
-        <v>16795556</v>
+        <v>5520245</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.2966526632802698</v>
+        <v>0.121560598561703</v>
+      </c>
+      <c r="H14" t="n">
+        <v>5520245</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.121560598561703</v>
+      </c>
+      <c r="J14" t="n">
+        <v>16151027</v>
+      </c>
+      <c r="K14" t="n">
+        <v>-0.3774193526004715</v>
+      </c>
+      <c r="L14" t="n">
+        <v>16151027</v>
+      </c>
+      <c r="M14" t="n">
+        <v>-0.3774193526004715</v>
       </c>
     </row>
     <row r="15">
@@ -1169,22 +4514,40 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>30866697</v>
+        <v>23663498</v>
       </c>
       <c r="C15" t="n">
-        <v>0.07226479819498399</v>
+        <v>-0.12617484598985</v>
       </c>
       <c r="D15" t="n">
-        <v>13071662</v>
+        <v>45334769</v>
       </c>
       <c r="E15" t="n">
-        <v>0.1220948349167996</v>
+        <v>-0.2176154211676948</v>
       </c>
       <c r="F15" t="n">
-        <v>17795035</v>
+        <v>3957481</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03839176860090365</v>
+        <v>-0.03713876411574735</v>
+      </c>
+      <c r="H15" t="n">
+        <v>9477725</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.04934279651437135</v>
+      </c>
+      <c r="J15" t="n">
+        <v>19706017</v>
+      </c>
+      <c r="K15" t="n">
+        <v>-0.1421063512938681</v>
+      </c>
+      <c r="L15" t="n">
+        <v>35857044</v>
+      </c>
+      <c r="M15" t="n">
+        <v>-0.2669114531037349</v>
       </c>
     </row>
     <row r="16">
@@ -1194,22 +4557,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>35977539</v>
+        <v>26719065</v>
       </c>
       <c r="C16" t="n">
-        <v>0.008310329038257791</v>
+        <v>-0.1899165763754853</v>
       </c>
       <c r="D16" t="n">
-        <v>16234769</v>
+        <v>71989435</v>
       </c>
       <c r="E16" t="n">
-        <v>0.1215676415773908</v>
+        <v>-0.2083504648890888</v>
       </c>
       <c r="F16" t="n">
-        <v>19742770</v>
+        <v>5391745</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.06899851546375024</v>
+        <v>-0.03336171354062178</v>
+      </c>
+      <c r="H16" t="n">
+        <v>14808995</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.01594894252844381</v>
+      </c>
+      <c r="J16" t="n">
+        <v>21327320</v>
+      </c>
+      <c r="K16" t="n">
+        <v>-0.2217803932031763</v>
+      </c>
+      <c r="L16" t="n">
+        <v>57180440</v>
+      </c>
+      <c r="M16" t="n">
+        <v>-0.2511677267141016</v>
       </c>
     </row>
     <row r="17">
@@ -1219,22 +4600,40 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>39935144</v>
+        <v>27835800</v>
       </c>
       <c r="C17" t="n">
-        <v>0.1178402603490543</v>
+        <v>-0.1247753675633434</v>
       </c>
       <c r="D17" t="n">
-        <v>16680263</v>
+        <v>99823999</v>
       </c>
       <c r="E17" t="n">
-        <v>0.1708931640010782</v>
+        <v>-0.1867826451835229</v>
       </c>
       <c r="F17" t="n">
-        <v>23254882</v>
+        <v>5299532</v>
       </c>
       <c r="G17" t="n">
-        <v>0.08265426365192985</v>
+        <v>0.1352993598916872</v>
+      </c>
+      <c r="H17" t="n">
+        <v>20055835</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.04372817818131169</v>
+      </c>
+      <c r="J17" t="n">
+        <v>22536267</v>
+      </c>
+      <c r="K17" t="n">
+        <v>-0.169513311306436</v>
+      </c>
+      <c r="L17" t="n">
+        <v>79768164</v>
+      </c>
+      <c r="M17" t="n">
+        <v>-0.2295637292855854</v>
       </c>
     </row>
     <row r="18">
@@ -1244,22 +4643,40 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>37715143</v>
+        <v>26928178</v>
       </c>
       <c r="C18" t="n">
-        <v>0.04681474341450831</v>
+        <v>-0.1794603036988459</v>
       </c>
       <c r="D18" t="n">
-        <v>15838414</v>
+        <v>126670175</v>
       </c>
       <c r="E18" t="n">
-        <v>0.03382891159681867</v>
+        <v>-0.185793874301326</v>
       </c>
       <c r="F18" t="n">
-        <v>21876730</v>
+        <v>5095601</v>
       </c>
       <c r="G18" t="n">
-        <v>0.05642184149294915</v>
+        <v>-0.03957049456191486</v>
+      </c>
+      <c r="H18" t="n">
+        <v>25084915</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.02397810944956813</v>
+      </c>
+      <c r="J18" t="n">
+        <v>21832577</v>
+      </c>
+      <c r="K18" t="n">
+        <v>-0.2064372190008918</v>
+      </c>
+      <c r="L18" t="n">
+        <v>101585260</v>
+      </c>
+      <c r="M18" t="n">
+        <v>-0.2249988420977538</v>
       </c>
     </row>
     <row r="19">
@@ -1269,22 +4686,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>36784152</v>
+        <v>26692034</v>
       </c>
       <c r="C19" t="n">
-        <v>0.05399703888343033</v>
+        <v>-0.04070111103072638</v>
       </c>
       <c r="D19" t="n">
-        <v>16536307</v>
+        <v>153246038</v>
       </c>
       <c r="E19" t="n">
-        <v>0.0923698628571481</v>
+        <v>-0.1641662063644141</v>
       </c>
       <c r="F19" t="n">
-        <v>20247845</v>
+        <v>5163395</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02460233354866603</v>
+        <v>-0.04629625354055977</v>
+      </c>
+      <c r="H19" t="n">
+        <v>30171377</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.01048075589218689</v>
+      </c>
+      <c r="J19" t="n">
+        <v>21528639</v>
+      </c>
+      <c r="K19" t="n">
+        <v>-0.03934936324648508</v>
+      </c>
+      <c r="L19" t="n">
+        <v>123074660</v>
+      </c>
+      <c r="M19" t="n">
+        <v>-0.1981410555187557</v>
       </c>
     </row>
   </sheetData>
@@ -1298,7 +4733,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:M19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1314,32 +4749,62 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>进出口</t>
+          <t>进出口_当月</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>进出口同比</t>
+          <t>进出口_当月同比</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>出口</t>
+          <t>进出口_年初至今</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>出口同比</t>
+          <t>进出口_年初至今同比</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>进口</t>
+          <t>进口_当月</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>进口同比</t>
+          <t>进口_当月同比</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>进口_年初至今</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>进口_年初至今同比</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>出口_当月</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>出口_当月同比</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>出口_年初至今</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>出口_年初至今同比</t>
         </is>
       </c>
     </row>
@@ -1350,17 +4815,29 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>38758759</v>
+        <v>38821399</v>
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="n">
-        <v>25586358</v>
+        <v>38821399</v>
       </c>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="n">
-        <v>13172400</v>
+        <v>14941937</v>
       </c>
       <c r="G2" t="inlineStr"/>
+      <c r="H2" t="n">
+        <v>14941937</v>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="n">
+        <v>23879462</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>23879462</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1369,17 +4846,29 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>28759095</v>
+        <v>28786450</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="n">
-        <v>18557932</v>
+        <v>67607849</v>
       </c>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="n">
-        <v>10201163</v>
+        <v>11649338</v>
       </c>
       <c r="G3" t="inlineStr"/>
+      <c r="H3" t="n">
+        <v>26591275</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>17137111</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>41016574</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1388,17 +4877,29 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>34598413</v>
+        <v>35681018</v>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="n">
-        <v>20143298</v>
+        <v>103279329</v>
       </c>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="n">
-        <v>14455115</v>
+        <v>14475069</v>
       </c>
       <c r="G4" t="inlineStr"/>
+      <c r="H4" t="n">
+        <v>41060220</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>21205949</v>
+      </c>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>62219109</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1407,17 +4908,29 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>39049812</v>
+        <v>35725269</v>
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="n">
-        <v>25102162</v>
+        <v>138904819</v>
       </c>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="n">
-        <v>13947650</v>
+        <v>14245760</v>
       </c>
       <c r="G5" t="inlineStr"/>
+      <c r="H5" t="n">
+        <v>55307434</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>21479509</v>
+      </c>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>83597385</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1426,17 +4939,29 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>40167088</v>
+        <v>36028479</v>
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="n">
-        <v>26628814</v>
+        <v>174918627</v>
       </c>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="n">
-        <v>13538274</v>
+        <v>15320150</v>
       </c>
       <c r="G6" t="inlineStr"/>
+      <c r="H6" t="n">
+        <v>70621403</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>20708328</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>104297224</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1445,17 +4970,29 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>38952559</v>
+        <v>34899673</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="n">
-        <v>24976024</v>
+        <v>209764177</v>
       </c>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="n">
-        <v>13976535</v>
+        <v>15138011</v>
       </c>
       <c r="G7" t="inlineStr"/>
+      <c r="H7" t="n">
+        <v>85749346</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>19761662</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>124014831</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1464,17 +5001,29 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>39272625</v>
+        <v>36301058</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="n">
-        <v>24465691</v>
+        <v>246049029</v>
       </c>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="n">
-        <v>14806934</v>
+        <v>15734497</v>
       </c>
       <c r="G8" t="inlineStr"/>
+      <c r="H8" t="n">
+        <v>101465328</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>20566561</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>144583701</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1483,17 +5032,29 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>37021093</v>
+        <v>34707045</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="n">
-        <v>23102211</v>
+        <v>280710580</v>
       </c>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="n">
-        <v>13918882</v>
+        <v>15640025</v>
       </c>
       <c r="G9" t="inlineStr"/>
+      <c r="H9" t="n">
+        <v>117057395</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>19067020</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>163653185</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1502,17 +5063,29 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>41007111</v>
+        <v>36029817</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="n">
-        <v>25614337</v>
+        <v>316739700</v>
       </c>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="n">
-        <v>15392773</v>
+        <v>15793505</v>
       </c>
       <c r="G10" t="inlineStr"/>
+      <c r="H10" t="n">
+        <v>132846037</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>20236312</v>
+      </c>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>183893663</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1521,17 +5094,29 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>38751280</v>
+        <v>35531017</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="n">
-        <v>23440233</v>
+        <v>352294097</v>
       </c>
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="n">
-        <v>15311047</v>
+        <v>15506365</v>
       </c>
       <c r="G11" t="inlineStr"/>
+      <c r="H11" t="n">
+        <v>148351449</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>20024652</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>203942648</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1540,17 +5125,29 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>35005378</v>
+        <v>35001752</v>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="n">
-        <v>21405124</v>
+        <v>387500161</v>
       </c>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="n">
-        <v>13600254</v>
+        <v>15789642</v>
       </c>
       <c r="G12" t="inlineStr"/>
+      <c r="H12" t="n">
+        <v>164185383</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>19212110</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>223314778</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1559,17 +5156,29 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>39817189</v>
+        <v>39290069</v>
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="n">
-        <v>22542501</v>
+        <v>426808654</v>
       </c>
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="n">
-        <v>17274688</v>
+        <v>17575763</v>
       </c>
       <c r="G13" t="inlineStr"/>
+      <c r="H13" t="n">
+        <v>181760109</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>21714307</v>
+      </c>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>245048545</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1578,22 +5187,40 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>33255920</v>
+        <v>33718633</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.1419766561669324</v>
+        <v>-0.1314420946035458</v>
       </c>
       <c r="D14" t="n">
-        <v>20957655</v>
+        <v>33718633</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.1809051135765395</v>
+        <v>-0.1314420946035458</v>
       </c>
       <c r="F14" t="n">
-        <v>12298265</v>
+        <v>16923077</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.0663611035194801</v>
+        <v>0.1325892352510922</v>
+      </c>
+      <c r="H14" t="n">
+        <v>16923077</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.1325892352510922</v>
+      </c>
+      <c r="J14" t="n">
+        <v>16795556</v>
+      </c>
+      <c r="K14" t="n">
+        <v>-0.2966526632802698</v>
+      </c>
+      <c r="L14" t="n">
+        <v>16795556</v>
+      </c>
+      <c r="M14" t="n">
+        <v>-0.2966526632802698</v>
       </c>
     </row>
     <row r="15">
@@ -1603,22 +5230,40 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>27114343</v>
+        <v>30866697</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.05719067307229242</v>
+        <v>0.07226479819498399</v>
       </c>
       <c r="D15" t="n">
-        <v>15775147</v>
+        <v>64585330</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.149951244567552</v>
+        <v>-0.04470662866378128</v>
       </c>
       <c r="F15" t="n">
-        <v>11339197</v>
+        <v>13071662</v>
       </c>
       <c r="G15" t="n">
-        <v>0.1115592408434214</v>
+        <v>0.1220948349167996</v>
+      </c>
+      <c r="H15" t="n">
+        <v>29994739</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.12799175669463</v>
+      </c>
+      <c r="J15" t="n">
+        <v>17795035</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0.03839176860090365</v>
+      </c>
+      <c r="L15" t="n">
+        <v>34590592</v>
+      </c>
+      <c r="M15" t="n">
+        <v>-0.1566679362347523</v>
       </c>
     </row>
     <row r="16">
@@ -1628,22 +5273,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>38704825</v>
+        <v>35977539</v>
       </c>
       <c r="C16" t="n">
-        <v>0.1186878716084463</v>
+        <v>0.008310329038257791</v>
       </c>
       <c r="D16" t="n">
-        <v>21852995</v>
+        <v>100538519</v>
       </c>
       <c r="E16" t="n">
-        <v>0.08487671681171571</v>
+        <v>-0.02653783701480095</v>
       </c>
       <c r="F16" t="n">
-        <v>16851830</v>
+        <v>16234769</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1658039386058152</v>
+        <v>0.1215676415773908</v>
+      </c>
+      <c r="H16" t="n">
+        <v>46224046</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.1257622584584301</v>
+      </c>
+      <c r="J16" t="n">
+        <v>19742770</v>
+      </c>
+      <c r="K16" t="n">
+        <v>-0.06899851546375024</v>
+      </c>
+      <c r="L16" t="n">
+        <v>54314473</v>
+      </c>
+      <c r="M16" t="n">
+        <v>-0.1270451494250745</v>
       </c>
     </row>
     <row r="17">
@@ -1653,22 +5316,40 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>40461477</v>
+        <v>39935144</v>
       </c>
       <c r="C17" t="n">
-        <v>0.03615036610163447</v>
+        <v>0.1178402603490543</v>
       </c>
       <c r="D17" t="n">
-        <v>24395216</v>
+        <v>140483905</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.02816275347119501</v>
+        <v>0.01136811531355142</v>
       </c>
       <c r="F17" t="n">
-        <v>16066261</v>
+        <v>16680263</v>
       </c>
       <c r="G17" t="n">
-        <v>0.151897344713984</v>
+        <v>0.1708931640010782</v>
+      </c>
+      <c r="H17" t="n">
+        <v>62901978</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.137315066904026</v>
+      </c>
+      <c r="J17" t="n">
+        <v>23254882</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0.08265426365192985</v>
+      </c>
+      <c r="L17" t="n">
+        <v>77581926</v>
+      </c>
+      <c r="M17" t="n">
+        <v>-0.07195750201994955</v>
       </c>
     </row>
     <row r="18">
@@ -1678,22 +5359,40 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>38130673</v>
+        <v>37715143</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.0506985968213578</v>
+        <v>0.04681474341450831</v>
       </c>
       <c r="D18" t="n">
-        <v>22941782</v>
+        <v>178197708</v>
       </c>
       <c r="E18" t="n">
-        <v>-0.1384602408503811</v>
+        <v>0.01874632254002306</v>
       </c>
       <c r="F18" t="n">
-        <v>15188891</v>
+        <v>15838414</v>
       </c>
       <c r="G18" t="n">
-        <v>0.1219222627640717</v>
+        <v>0.03382891159681867</v>
+      </c>
+      <c r="H18" t="n">
+        <v>78738059</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.1149319562512798</v>
+      </c>
+      <c r="J18" t="n">
+        <v>21876730</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0.05642184149294915</v>
+      </c>
+      <c r="L18" t="n">
+        <v>99459648</v>
+      </c>
+      <c r="M18" t="n">
+        <v>-0.04638259595480698</v>
       </c>
     </row>
     <row r="19">
@@ -1703,22 +5402,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>39798483</v>
+        <v>36784152</v>
       </c>
       <c r="C19" t="n">
-        <v>0.02171677604031097</v>
+        <v>0.05399703888343033</v>
       </c>
       <c r="D19" t="n">
-        <v>25283919</v>
+        <v>215035564</v>
       </c>
       <c r="E19" t="n">
-        <v>0.01232762268325804</v>
+        <v>0.02513006308031329</v>
       </c>
       <c r="F19" t="n">
-        <v>14514564</v>
+        <v>16536307</v>
       </c>
       <c r="G19" t="n">
-        <v>0.03849516350082482</v>
+        <v>0.0923698628571481</v>
+      </c>
+      <c r="H19" t="n">
+        <v>95269940</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.111028182069167</v>
+      </c>
+      <c r="J19" t="n">
+        <v>20247845</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0.02460233354866603</v>
+      </c>
+      <c r="L19" t="n">
+        <v>119765624</v>
+      </c>
+      <c r="M19" t="n">
+        <v>-0.03426370028275083</v>
       </c>
     </row>
   </sheetData>
@@ -1732,7 +5449,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:M19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1748,32 +5465,62 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>进出口</t>
+          <t>进出口_当月</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>进出口同比</t>
+          <t>进出口_当月同比</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>出口</t>
+          <t>进出口_年初至今</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>出口同比</t>
+          <t>进出口_年初至今同比</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>进口</t>
+          <t>进口_当月</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>进口同比</t>
+          <t>进口_当月同比</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>进口_年初至今</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>进口_年初至今同比</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>出口_当月</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>出口_当月同比</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>出口_年初至今</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>出口_年初至今同比</t>
         </is>
       </c>
     </row>
@@ -1784,17 +5531,29 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5290290</v>
+        <v>38758759</v>
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="n">
-        <v>3495408</v>
+        <v>38758759</v>
       </c>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="n">
-        <v>1794882</v>
+        <v>25586358</v>
       </c>
       <c r="G2" t="inlineStr"/>
+      <c r="H2" t="n">
+        <v>25586358</v>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="n">
+        <v>13172400</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>13172400</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1803,17 +5562,29 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3726282</v>
+        <v>28759095</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="n">
-        <v>2298685</v>
+        <v>67517854</v>
       </c>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="n">
-        <v>1427597</v>
+        <v>18557932</v>
       </c>
       <c r="G3" t="inlineStr"/>
+      <c r="H3" t="n">
+        <v>44144290</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>10201163</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>23373564</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1822,17 +5593,29 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4365387</v>
+        <v>34598413</v>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="n">
-        <v>2493533</v>
+        <v>102028834</v>
       </c>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="n">
-        <v>1871855</v>
+        <v>20143298</v>
       </c>
       <c r="G4" t="inlineStr"/>
+      <c r="H4" t="n">
+        <v>64243700</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>14455115</v>
+      </c>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>37785134</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1841,17 +5624,29 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>4615683</v>
+        <v>39049812</v>
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="n">
-        <v>2793603</v>
+        <v>141058257</v>
       </c>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="n">
-        <v>1822079</v>
+        <v>25102162</v>
       </c>
       <c r="G5" t="inlineStr"/>
+      <c r="H5" t="n">
+        <v>89331972</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>13947650</v>
+      </c>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>51726285</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1860,17 +5655,29 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4338284</v>
+        <v>40167088</v>
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="n">
-        <v>2823586</v>
+        <v>181180209</v>
       </c>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="n">
-        <v>1514697</v>
+        <v>26628814</v>
       </c>
       <c r="G6" t="inlineStr"/>
+      <c r="H6" t="n">
+        <v>115926548</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>13538274</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>65253661</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1879,17 +5686,29 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4292140</v>
+        <v>38952559</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="n">
-        <v>2747680</v>
+        <v>220131919</v>
       </c>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="n">
-        <v>1544460</v>
+        <v>24976024</v>
       </c>
       <c r="G7" t="inlineStr"/>
+      <c r="H7" t="n">
+        <v>140887242</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>13976535</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>79244676</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1898,17 +5717,29 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4318302</v>
+        <v>39272625</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="n">
-        <v>2755492</v>
+        <v>259277291</v>
       </c>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="n">
-        <v>1562810</v>
+        <v>24465691</v>
       </c>
       <c r="G8" t="inlineStr"/>
+      <c r="H8" t="n">
+        <v>165227084</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>14806934</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>94050206</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1917,17 +5748,29 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>4810423</v>
+        <v>37021093</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="n">
-        <v>3079743</v>
+        <v>296240589</v>
       </c>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="n">
-        <v>1730681</v>
+        <v>23102211</v>
       </c>
       <c r="G9" t="inlineStr"/>
+      <c r="H9" t="n">
+        <v>188307917</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>13918882</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>107932672</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1936,17 +5779,29 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4448824</v>
+        <v>41007111</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="n">
-        <v>2779356</v>
+        <v>337208458</v>
       </c>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="n">
-        <v>1669468</v>
+        <v>25614337</v>
       </c>
       <c r="G10" t="inlineStr"/>
+      <c r="H10" t="n">
+        <v>213888498</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>15392773</v>
+      </c>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>123319960</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1955,17 +5810,29 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>4602715</v>
+        <v>38751280</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="n">
-        <v>2837353</v>
+        <v>375874226</v>
       </c>
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="n">
-        <v>1765362</v>
+        <v>23440233</v>
       </c>
       <c r="G11" t="inlineStr"/>
+      <c r="H11" t="n">
+        <v>237306508</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>15311047</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>138567718</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1974,17 +5841,29 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>4476806</v>
+        <v>35005378</v>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="n">
-        <v>2858733</v>
+        <v>410840223</v>
       </c>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="n">
-        <v>1618073</v>
+        <v>21405124</v>
       </c>
       <c r="G12" t="inlineStr"/>
+      <c r="H12" t="n">
+        <v>258690640</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>13600254</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>152149583</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1993,17 +5872,29 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>5324169</v>
+        <v>39817189</v>
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="n">
-        <v>3653025</v>
+        <v>450482412</v>
       </c>
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="n">
-        <v>1671144</v>
+        <v>22542501</v>
       </c>
       <c r="G13" t="inlineStr"/>
+      <c r="H13" t="n">
+        <v>281221599</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>17274688</v>
+      </c>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>169260813</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -2012,22 +5903,40 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>4626091</v>
+        <v>33255920</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.1255505841834758</v>
+        <v>-0.1419766561669324</v>
       </c>
       <c r="D14" t="n">
-        <v>3228414</v>
+        <v>33255920</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.07638421609151202</v>
+        <v>-0.1419766561669324</v>
       </c>
       <c r="F14" t="n">
-        <v>1397677</v>
+        <v>20957655</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.2212986703304173</v>
+        <v>-0.1809051135765395</v>
+      </c>
+      <c r="H14" t="n">
+        <v>20957655</v>
+      </c>
+      <c r="I14" t="n">
+        <v>-0.1809051135765395</v>
+      </c>
+      <c r="J14" t="n">
+        <v>12298265</v>
+      </c>
+      <c r="K14" t="n">
+        <v>-0.0663611035194801</v>
+      </c>
+      <c r="L14" t="n">
+        <v>12298265</v>
+      </c>
+      <c r="M14" t="n">
+        <v>-0.0663611035194801</v>
       </c>
     </row>
     <row r="15">
@@ -2037,22 +5946,40 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>3478321</v>
+        <v>27114343</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.06654380962042061</v>
+        <v>-0.05719067307229242</v>
       </c>
       <c r="D15" t="n">
-        <v>2143232</v>
+        <v>60370263</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.06762692582933283</v>
+        <v>-0.1058622360835106</v>
       </c>
       <c r="F15" t="n">
-        <v>1335089</v>
+        <v>15775147</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.06479979994354146</v>
+        <v>-0.149951244567552</v>
+      </c>
+      <c r="H15" t="n">
+        <v>36732801</v>
+      </c>
+      <c r="I15" t="n">
+        <v>-0.1678923593515719</v>
+      </c>
+      <c r="J15" t="n">
+        <v>11339197</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0.1115592408434214</v>
+      </c>
+      <c r="L15" t="n">
+        <v>23637462</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0.01129044761851472</v>
       </c>
     </row>
     <row r="16">
@@ -2062,22 +5989,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>5251137</v>
+        <v>38704825</v>
       </c>
       <c r="C16" t="n">
-        <v>0.2029029728635743</v>
+        <v>0.1186878716084463</v>
       </c>
       <c r="D16" t="n">
-        <v>3745102</v>
+        <v>99010406</v>
       </c>
       <c r="E16" t="n">
-        <v>0.5019259821305753</v>
+        <v>-0.02958406836247873</v>
       </c>
       <c r="F16" t="n">
-        <v>1506035</v>
+        <v>21852995</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.1954318042797119</v>
+        <v>0.08487671681171571</v>
+      </c>
+      <c r="H16" t="n">
+        <v>58550503</v>
+      </c>
+      <c r="I16" t="n">
+        <v>-0.08861875950482301</v>
+      </c>
+      <c r="J16" t="n">
+        <v>16851830</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0.1658039386058152</v>
+      </c>
+      <c r="L16" t="n">
+        <v>40459903</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0.07078892455429697</v>
       </c>
     </row>
     <row r="17">
@@ -2087,22 +6032,40 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>4579426</v>
+        <v>40461477</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.007855175496237488</v>
+        <v>0.03615036610163447</v>
       </c>
       <c r="D17" t="n">
-        <v>3036956</v>
+        <v>139456105</v>
       </c>
       <c r="E17" t="n">
-        <v>0.0871108027876546</v>
+        <v>-0.01135808731848997</v>
       </c>
       <c r="F17" t="n">
-        <v>1542470</v>
+        <v>24395216</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.1534560246838913</v>
+        <v>-0.02816275347119501</v>
+      </c>
+      <c r="H17" t="n">
+        <v>82934369</v>
+      </c>
+      <c r="I17" t="n">
+        <v>-0.07161605029831875</v>
+      </c>
+      <c r="J17" t="n">
+        <v>16066261</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0.151897344713984</v>
+      </c>
+      <c r="L17" t="n">
+        <v>56521736</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0.0927082043491041</v>
       </c>
     </row>
     <row r="18">
@@ -2112,22 +6075,40 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>4557095</v>
+        <v>38130673</v>
       </c>
       <c r="C18" t="n">
-        <v>0.05043722356581548</v>
+        <v>-0.0506985968213578</v>
       </c>
       <c r="D18" t="n">
-        <v>2972488</v>
+        <v>177511305</v>
       </c>
       <c r="E18" t="n">
-        <v>0.05273506810134343</v>
+        <v>-0.02025002631496031</v>
       </c>
       <c r="F18" t="n">
-        <v>1584607</v>
+        <v>22941782</v>
       </c>
       <c r="G18" t="n">
-        <v>0.04615444541053426</v>
+        <v>-0.1384602408503811</v>
+      </c>
+      <c r="H18" t="n">
+        <v>105848462</v>
+      </c>
+      <c r="I18" t="n">
+        <v>-0.08693509962877533</v>
+      </c>
+      <c r="J18" t="n">
+        <v>15188891</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0.1219222627640717</v>
+      </c>
+      <c r="L18" t="n">
+        <v>71662843</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0.09821950066525775</v>
       </c>
     </row>
     <row r="19">
@@ -2137,22 +6118,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>4805229</v>
+        <v>39798483</v>
       </c>
       <c r="C19" t="n">
-        <v>0.1195415340599328</v>
+        <v>0.02171677604031097</v>
       </c>
       <c r="D19" t="n">
-        <v>3143103</v>
+        <v>216754450</v>
       </c>
       <c r="E19" t="n">
-        <v>0.143911590869388</v>
+        <v>-0.01534293170814538</v>
       </c>
       <c r="F19" t="n">
-        <v>1662126</v>
+        <v>25283919</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0761858513655258</v>
+        <v>0.01232762268325804</v>
+      </c>
+      <c r="H19" t="n">
+        <v>130868050</v>
+      </c>
+      <c r="I19" t="n">
+        <v>-0.07111497008366452</v>
+      </c>
+      <c r="J19" t="n">
+        <v>14514564</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0.03849516350082482</v>
+      </c>
+      <c r="L19" t="n">
+        <v>85886400</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0.08381287343518196</v>
       </c>
     </row>
   </sheetData>
@@ -2166,7 +6165,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:M19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2182,32 +6181,62 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>进出口</t>
+          <t>进出口_当月</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>进出口同比</t>
+          <t>进出口_当月同比</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>出口</t>
+          <t>进出口_年初至今</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>出口同比</t>
+          <t>进出口_年初至今同比</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>进口</t>
+          <t>进口_当月</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>进口同比</t>
+          <t>进口_当月同比</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>进口_年初至今</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>进口_年初至今同比</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>出口_当月</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>出口_当月同比</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>出口_年初至今</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>出口_年初至今同比</t>
         </is>
       </c>
     </row>
@@ -2218,17 +6247,29 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2891874</v>
+        <v>5290290</v>
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="n">
-        <v>1937375</v>
+        <v>5290290</v>
       </c>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="n">
-        <v>954499</v>
+        <v>3495408</v>
       </c>
       <c r="G2" t="inlineStr"/>
+      <c r="H2" t="n">
+        <v>3495408</v>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="n">
+        <v>1794882</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1794882</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2237,17 +6278,29 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2247574</v>
+        <v>3726282</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="n">
-        <v>1547502</v>
+        <v>9016572</v>
       </c>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="n">
-        <v>700072</v>
+        <v>2298685</v>
       </c>
       <c r="G3" t="inlineStr"/>
+      <c r="H3" t="n">
+        <v>5794093</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>1427597</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>3222479</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -2256,17 +6309,29 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2986797</v>
+        <v>4365387</v>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="n">
-        <v>2068908</v>
+        <v>13381998</v>
       </c>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="n">
-        <v>917889</v>
+        <v>2493533</v>
       </c>
       <c r="G4" t="inlineStr"/>
+      <c r="H4" t="n">
+        <v>8287378</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>1871855</v>
+      </c>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>5094620</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -2275,17 +6340,29 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2666531</v>
+        <v>4615683</v>
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="n">
-        <v>1853269</v>
+        <v>17997526</v>
       </c>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="n">
-        <v>813262</v>
+        <v>2793603</v>
       </c>
       <c r="G5" t="inlineStr"/>
+      <c r="H5" t="n">
+        <v>11080633</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>1822079</v>
+      </c>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>6916893</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -2294,17 +6371,29 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2775009</v>
+        <v>4338284</v>
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="n">
-        <v>2087995</v>
+        <v>22334098</v>
       </c>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="n">
-        <v>687014</v>
+        <v>2823586</v>
       </c>
       <c r="G6" t="inlineStr"/>
+      <c r="H6" t="n">
+        <v>13903059</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>1514697</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>8431039</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -2313,17 +6402,29 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3136196</v>
+        <v>4292140</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="n">
-        <v>2154174</v>
+        <v>26617964</v>
       </c>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="n">
-        <v>982022</v>
+        <v>2747680</v>
       </c>
       <c r="G7" t="inlineStr"/>
+      <c r="H7" t="n">
+        <v>16648074</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>1544460</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>9969890</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2332,17 +6433,29 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3570479</v>
+        <v>4318302</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="n">
-        <v>2295381</v>
+        <v>30929506</v>
       </c>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="n">
-        <v>1275098</v>
+        <v>2755492</v>
       </c>
       <c r="G8" t="inlineStr"/>
+      <c r="H8" t="n">
+        <v>19403456</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>1562810</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>11526050</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2351,17 +6464,29 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>3343219</v>
+        <v>4810423</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="n">
-        <v>2407625</v>
+        <v>35735990</v>
       </c>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="n">
-        <v>935595</v>
+        <v>3079743</v>
       </c>
       <c r="G9" t="inlineStr"/>
+      <c r="H9" t="n">
+        <v>22482812</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>1730681</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>13253177</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2370,17 +6495,29 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3442129</v>
+        <v>4448824</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="n">
-        <v>2250438</v>
+        <v>40177904</v>
       </c>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="n">
-        <v>1191691</v>
+        <v>2779356</v>
       </c>
       <c r="G10" t="inlineStr"/>
+      <c r="H10" t="n">
+        <v>25261427</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>1669468</v>
+      </c>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>14916477</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2389,17 +6526,29 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>3669609</v>
+        <v>4602715</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="n">
-        <v>2367446</v>
+        <v>44780116</v>
       </c>
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="n">
-        <v>1302163</v>
+        <v>2837353</v>
       </c>
       <c r="G11" t="inlineStr"/>
+      <c r="H11" t="n">
+        <v>28098786</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>1765362</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>16681329</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -2408,17 +6557,29 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>3437786</v>
+        <v>4476806</v>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="n">
-        <v>2130430</v>
+        <v>49262257</v>
       </c>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="n">
-        <v>1307355</v>
+        <v>2858733</v>
       </c>
       <c r="G12" t="inlineStr"/>
+      <c r="H12" t="n">
+        <v>30969493</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>1618073</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>18292764</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -2427,17 +6588,29 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>3747895</v>
+        <v>5324169</v>
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="n">
-        <v>2635724</v>
+        <v>54591934</v>
       </c>
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="n">
-        <v>1112171</v>
+        <v>3653025</v>
       </c>
       <c r="G13" t="inlineStr"/>
+      <c r="H13" t="n">
+        <v>34627304</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>1671144</v>
+      </c>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>19964630</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -2446,22 +6619,40 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>3750633</v>
+        <v>4626091</v>
       </c>
       <c r="C14" t="n">
-        <v>0.2969558839700486</v>
+        <v>-0.1255505841834758</v>
       </c>
       <c r="D14" t="n">
-        <v>2628745</v>
+        <v>4626091</v>
       </c>
       <c r="E14" t="n">
-        <v>0.3568591522033679</v>
+        <v>-0.1255505841834758</v>
       </c>
       <c r="F14" t="n">
-        <v>1121888</v>
+        <v>3228414</v>
       </c>
       <c r="G14" t="n">
-        <v>0.1753684393592869</v>
+        <v>-0.07638421609151202</v>
+      </c>
+      <c r="H14" t="n">
+        <v>3228414</v>
+      </c>
+      <c r="I14" t="n">
+        <v>-0.07638421609151202</v>
+      </c>
+      <c r="J14" t="n">
+        <v>1397677</v>
+      </c>
+      <c r="K14" t="n">
+        <v>-0.2212986703304173</v>
+      </c>
+      <c r="L14" t="n">
+        <v>1397677</v>
+      </c>
+      <c r="M14" t="n">
+        <v>-0.2212986703304173</v>
       </c>
     </row>
     <row r="15">
@@ -2471,22 +6662,40 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>2650488</v>
+        <v>3478321</v>
       </c>
       <c r="C15" t="n">
-        <v>0.1792661776653406</v>
+        <v>-0.06654380962042061</v>
       </c>
       <c r="D15" t="n">
-        <v>1848026</v>
+        <v>8104412</v>
       </c>
       <c r="E15" t="n">
-        <v>0.1941994259135045</v>
+        <v>-0.1011648329320722</v>
       </c>
       <c r="F15" t="n">
-        <v>802462</v>
+        <v>2143232</v>
       </c>
       <c r="G15" t="n">
-        <v>0.1462563850575369</v>
+        <v>-0.06762692582933283</v>
+      </c>
+      <c r="H15" t="n">
+        <v>5371646</v>
+      </c>
+      <c r="I15" t="n">
+        <v>-0.07290994466260725</v>
+      </c>
+      <c r="J15" t="n">
+        <v>1335089</v>
+      </c>
+      <c r="K15" t="n">
+        <v>-0.06479979994354146</v>
+      </c>
+      <c r="L15" t="n">
+        <v>2732766</v>
+      </c>
+      <c r="M15" t="n">
+        <v>-0.1519677862912373</v>
       </c>
     </row>
     <row r="16">
@@ -2496,22 +6705,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>3083531</v>
+        <v>5251137</v>
       </c>
       <c r="C16" t="n">
-        <v>0.03238720274595153</v>
+        <v>0.2029029728635743</v>
       </c>
       <c r="D16" t="n">
-        <v>2135284</v>
+        <v>13358747</v>
       </c>
       <c r="E16" t="n">
-        <v>0.0320826252303148</v>
+        <v>-0.001737483446044408</v>
       </c>
       <c r="F16" t="n">
-        <v>948247</v>
+        <v>3745102</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03307371588503627</v>
+        <v>0.5019259821305753</v>
+      </c>
+      <c r="H16" t="n">
+        <v>9116489</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.1000450323371276</v>
+      </c>
+      <c r="J16" t="n">
+        <v>1506035</v>
+      </c>
+      <c r="K16" t="n">
+        <v>-0.1954318042797119</v>
+      </c>
+      <c r="L16" t="n">
+        <v>4242259</v>
+      </c>
+      <c r="M16" t="n">
+        <v>-0.1673060993754195</v>
       </c>
     </row>
     <row r="17">
@@ -2521,22 +6748,40 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>3412523</v>
+        <v>4579426</v>
       </c>
       <c r="C17" t="n">
-        <v>0.2797612328527215</v>
+        <v>-0.007855175496237488</v>
       </c>
       <c r="D17" t="n">
-        <v>2340318</v>
+        <v>17939556</v>
       </c>
       <c r="E17" t="n">
-        <v>0.2628053455812405</v>
+        <v>-0.003220998263872454</v>
       </c>
       <c r="F17" t="n">
-        <v>1072205</v>
+        <v>3036956</v>
       </c>
       <c r="G17" t="n">
-        <v>0.3184004662704023</v>
+        <v>0.0871108027876546</v>
+      </c>
+      <c r="H17" t="n">
+        <v>12152435</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.09672750645202299</v>
+      </c>
+      <c r="J17" t="n">
+        <v>1542470</v>
+      </c>
+      <c r="K17" t="n">
+        <v>-0.1534560246838913</v>
+      </c>
+      <c r="L17" t="n">
+        <v>5787120</v>
+      </c>
+      <c r="M17" t="n">
+        <v>-0.1633353298945061</v>
       </c>
     </row>
     <row r="18">
@@ -2546,22 +6791,40 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3701592</v>
+        <v>4557095</v>
       </c>
       <c r="C18" t="n">
-        <v>0.3339027008561053</v>
+        <v>0.05043722356581548</v>
       </c>
       <c r="D18" t="n">
-        <v>2522627</v>
+        <v>22495864</v>
       </c>
       <c r="E18" t="n">
-        <v>0.2081575865842591</v>
+        <v>0.007243005739475228</v>
       </c>
       <c r="F18" t="n">
-        <v>1178965</v>
+        <v>2972488</v>
       </c>
       <c r="G18" t="n">
-        <v>0.7160712882124673</v>
+        <v>0.05273506810134343</v>
+      </c>
+      <c r="H18" t="n">
+        <v>15124650</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.08786490800333935</v>
+      </c>
+      <c r="J18" t="n">
+        <v>1584607</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0.04615444541053426</v>
+      </c>
+      <c r="L18" t="n">
+        <v>7371214</v>
+      </c>
+      <c r="M18" t="n">
+        <v>-0.1257051473727022</v>
       </c>
     </row>
     <row r="19">
@@ -2571,22 +6834,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>3924168</v>
+        <v>4805229</v>
       </c>
       <c r="C19" t="n">
-        <v>0.2512508784527498</v>
+        <v>0.1195415340599328</v>
       </c>
       <c r="D19" t="n">
-        <v>2753917</v>
+        <v>27302728</v>
       </c>
       <c r="E19" t="n">
-        <v>0.2784097292047902</v>
+        <v>0.02572563401167716</v>
       </c>
       <c r="F19" t="n">
-        <v>1170251</v>
+        <v>3143103</v>
       </c>
       <c r="G19" t="n">
-        <v>0.1916749319261686</v>
+        <v>0.143911590869388</v>
+      </c>
+      <c r="H19" t="n">
+        <v>18267149</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.09725299154725042</v>
+      </c>
+      <c r="J19" t="n">
+        <v>1662126</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0.0761858513655258</v>
+      </c>
+      <c r="L19" t="n">
+        <v>9035580</v>
+      </c>
+      <c r="M19" t="n">
+        <v>-0.09371317035594173</v>
       </c>
     </row>
   </sheetData>
@@ -2600,7 +6881,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:M19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2616,32 +6897,62 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>进出口</t>
+          <t>进出口_当月</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>进出口同比</t>
+          <t>进出口_当月同比</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>出口</t>
+          <t>进出口_年初至今</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>出口同比</t>
+          <t>进出口_年初至今同比</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>进口</t>
+          <t>进口_当月</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>进口同比</t>
+          <t>进口_当月同比</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>进口_年初至今</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>进口_年初至今同比</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>出口_当月</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>出口_当月同比</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>出口_年初至今</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>出口_年初至今同比</t>
         </is>
       </c>
     </row>
@@ -2652,17 +6963,29 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>48711240</v>
+        <v>2891874</v>
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="n">
-        <v>36671963</v>
+        <v>2891874</v>
       </c>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="n">
-        <v>12039276</v>
+        <v>1937375</v>
       </c>
       <c r="G2" t="inlineStr"/>
+      <c r="H2" t="n">
+        <v>1937375</v>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="n">
+        <v>954499</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>954499</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2671,17 +6994,29 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>32975296</v>
+        <v>2247574</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="n">
-        <v>23238172</v>
+        <v>5139448</v>
       </c>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="n">
-        <v>9737123</v>
+        <v>1547502</v>
       </c>
       <c r="G3" t="inlineStr"/>
+      <c r="H3" t="n">
+        <v>3484877</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>700072</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1654572</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -2690,17 +7025,29 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>38968325</v>
+        <v>2986797</v>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="n">
-        <v>27552308</v>
+        <v>8126240</v>
       </c>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="n">
-        <v>11416017</v>
+        <v>2068908</v>
       </c>
       <c r="G4" t="inlineStr"/>
+      <c r="H4" t="n">
+        <v>5553784</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>917889</v>
+      </c>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>2572457</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -2709,17 +7056,29 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>43357525</v>
+        <v>2666531</v>
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="n">
-        <v>32183779</v>
+        <v>10791338</v>
       </c>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="n">
-        <v>11173747</v>
+        <v>1853269</v>
       </c>
       <c r="G5" t="inlineStr"/>
+      <c r="H5" t="n">
+        <v>7405882</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>813262</v>
+      </c>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>3385456</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -2728,17 +7087,29 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>46499346</v>
+        <v>2775009</v>
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="n">
-        <v>34878475</v>
+        <v>13566217</v>
       </c>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="n">
-        <v>11620872</v>
+        <v>2087995</v>
       </c>
       <c r="G6" t="inlineStr"/>
+      <c r="H6" t="n">
+        <v>9493831</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>687014</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>4072386</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -2747,17 +7118,29 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>46053933</v>
+        <v>3136196</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="n">
-        <v>35791497</v>
+        <v>16694399</v>
       </c>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="n">
-        <v>10262436</v>
+        <v>2154174</v>
       </c>
       <c r="G7" t="inlineStr"/>
+      <c r="H7" t="n">
+        <v>11639291</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>982022</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>5055108</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2766,17 +7149,29 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>45360022</v>
+        <v>3570479</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="n">
-        <v>33384235</v>
+        <v>20266560</v>
       </c>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="n">
-        <v>11975787</v>
+        <v>2295381</v>
       </c>
       <c r="G8" t="inlineStr"/>
+      <c r="H8" t="n">
+        <v>13934268</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>1275098</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>6332292</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2785,17 +7180,29 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>47672580</v>
+        <v>3343219</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="n">
-        <v>36003236</v>
+        <v>23609627</v>
       </c>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="n">
-        <v>11669344</v>
+        <v>2407625</v>
       </c>
       <c r="G9" t="inlineStr"/>
+      <c r="H9" t="n">
+        <v>16341424</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>935595</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>7268203</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2804,17 +7211,29 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>44091011</v>
+        <v>3442129</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="n">
-        <v>32236815</v>
+        <v>27050570</v>
       </c>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="n">
-        <v>11854196</v>
+        <v>2250438</v>
       </c>
       <c r="G10" t="inlineStr"/>
+      <c r="H10" t="n">
+        <v>18591197</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>1191691</v>
+      </c>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>8459374</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2823,17 +7242,29 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>44439024</v>
+        <v>3669609</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="n">
-        <v>33470708</v>
+        <v>30719046</v>
       </c>
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="n">
-        <v>10968315</v>
+        <v>2367446</v>
       </c>
       <c r="G11" t="inlineStr"/>
+      <c r="H11" t="n">
+        <v>20958308</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>1302163</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>9760738</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -2842,17 +7273,29 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>43377080</v>
+        <v>3437786</v>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="n">
-        <v>32135476</v>
+        <v>34154982</v>
       </c>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="n">
-        <v>11241605</v>
+        <v>2130430</v>
       </c>
       <c r="G12" t="inlineStr"/>
+      <c r="H12" t="n">
+        <v>23087212</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>1307355</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>11067769</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -2861,17 +7304,29 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>45537948</v>
+        <v>3747895</v>
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="n">
-        <v>33238139</v>
+        <v>37907259</v>
       </c>
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="n">
-        <v>12299809</v>
+        <v>2635724</v>
       </c>
       <c r="G13" t="inlineStr"/>
+      <c r="H13" t="n">
+        <v>25727402</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>1112171</v>
+      </c>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>12179857</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -2880,21 +7335,755 @@
         </is>
       </c>
       <c r="B14" t="n">
+        <v>3750633</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.2969558839700486</v>
+      </c>
+      <c r="D14" t="n">
+        <v>3750633</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.2969558839700486</v>
+      </c>
+      <c r="F14" t="n">
+        <v>2628745</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.3568591522033679</v>
+      </c>
+      <c r="H14" t="n">
+        <v>2628745</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.3568591522033679</v>
+      </c>
+      <c r="J14" t="n">
+        <v>1121888</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0.1753684393592869</v>
+      </c>
+      <c r="L14" t="n">
+        <v>1121888</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0.1753684393592869</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>2025-02</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>2650488</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.1792661776653406</v>
+      </c>
+      <c r="D15" t="n">
+        <v>6401121</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.245488036847537</v>
+      </c>
+      <c r="F15" t="n">
+        <v>1848026</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.1941994259135045</v>
+      </c>
+      <c r="H15" t="n">
+        <v>4476771</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.2846281231733574</v>
+      </c>
+      <c r="J15" t="n">
+        <v>802462</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0.1462563850575369</v>
+      </c>
+      <c r="L15" t="n">
+        <v>1924350</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0.163050021395261</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2025-03</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>3083531</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.03238720274595153</v>
+      </c>
+      <c r="D16" t="n">
+        <v>9484382</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.1671304317864104</v>
+      </c>
+      <c r="F16" t="n">
+        <v>2135284</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.0320826252303148</v>
+      </c>
+      <c r="H16" t="n">
+        <v>6611789</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.1905016471652481</v>
+      </c>
+      <c r="J16" t="n">
+        <v>948247</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0.03307371588503627</v>
+      </c>
+      <c r="L16" t="n">
+        <v>2872593</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0.1166728928802307</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>2025-04</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>3412523</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.2797612328527215</v>
+      </c>
+      <c r="D17" t="n">
+        <v>12896615</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.1950895245798066</v>
+      </c>
+      <c r="F17" t="n">
+        <v>2340318</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.2628053455812405</v>
+      </c>
+      <c r="H17" t="n">
+        <v>8952057</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.2087766183690207</v>
+      </c>
+      <c r="J17" t="n">
+        <v>1072205</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0.3184004662704023</v>
+      </c>
+      <c r="L17" t="n">
+        <v>3944558</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0.1651482104626378</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>2025-05</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>3701592</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.3339027008561053</v>
+      </c>
+      <c r="D18" t="n">
+        <v>16594604</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.2232300279436781</v>
+      </c>
+      <c r="F18" t="n">
+        <v>2522627</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.2081575865842591</v>
+      </c>
+      <c r="H18" t="n">
+        <v>11471294</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.2082892564655934</v>
+      </c>
+      <c r="J18" t="n">
+        <v>1178965</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0.7160712882124673</v>
+      </c>
+      <c r="L18" t="n">
+        <v>5123310</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0.2580609991292573</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>2025-06</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>3924168</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.2512508784527498</v>
+      </c>
+      <c r="D19" t="n">
+        <v>20517231</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.2289888962160302</v>
+      </c>
+      <c r="F19" t="n">
+        <v>2753917</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.2784097292047902</v>
+      </c>
+      <c r="H19" t="n">
+        <v>14223651</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.2220375794367544</v>
+      </c>
+      <c r="J19" t="n">
+        <v>1170251</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0.1916749319261686</v>
+      </c>
+      <c r="L19" t="n">
+        <v>6293580</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0.2449941722313351</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:M19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>进出口_当月</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>进出口_当月同比</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>进出口_年初至今</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>进出口_年初至今同比</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>进口_当月</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>进口_当月同比</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>进口_年初至今</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>进口_年初至今同比</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>出口_当月</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>出口_当月同比</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>出口_年初至今</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>出口_年初至今同比</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2024-01</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>48711240</v>
+      </c>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="n">
+        <v>48711240</v>
+      </c>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="n">
+        <v>36671963</v>
+      </c>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="n">
+        <v>36671963</v>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="n">
+        <v>12039276</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>12039276</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2024-02</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>32975296</v>
+      </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="n">
+        <v>81686536</v>
+      </c>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="n">
+        <v>23238172</v>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="n">
+        <v>59910136</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>9737123</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>21776400</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2024-03</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>38968325</v>
+      </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="n">
+        <v>120651010</v>
+      </c>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="n">
+        <v>27552308</v>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="n">
+        <v>87462913</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>11416017</v>
+      </c>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>33188097</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2024-04</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>43357525</v>
+      </c>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="n">
+        <v>164007439</v>
+      </c>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="n">
+        <v>32183779</v>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="n">
+        <v>119641376</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>11173747</v>
+      </c>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>44366063</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2024-05</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>46499346</v>
+      </c>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="n">
+        <v>210494592</v>
+      </c>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="n">
+        <v>34878475</v>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="n">
+        <v>154503169</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>11620872</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>55991423</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2024-06</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>46053933</v>
+      </c>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="n">
+        <v>256452081</v>
+      </c>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="n">
+        <v>35791497</v>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="n">
+        <v>190193076</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>10262436</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>66259004</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2024-07</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>45360022</v>
+      </c>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="n">
+        <v>301465161</v>
+      </c>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="n">
+        <v>33384235</v>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="n">
+        <v>223264150</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>11975787</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>78201011</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2024-08</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>47672580</v>
+      </c>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="n">
+        <v>348971649</v>
+      </c>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="n">
+        <v>36003236</v>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="n">
+        <v>259192209</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>11669344</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>89779440</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2024-09</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>44091011</v>
+      </c>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="n">
+        <v>392992456</v>
+      </c>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="n">
+        <v>32236815</v>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="n">
+        <v>291409455</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>11854196</v>
+      </c>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>101583002</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2024-10</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>44439024</v>
+      </c>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="n">
+        <v>437331811</v>
+      </c>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="n">
+        <v>33470708</v>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="n">
+        <v>324865747</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>10968315</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>112466064</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2024-11</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>43377080</v>
+      </c>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="n">
+        <v>480862448</v>
+      </c>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="n">
+        <v>32135476</v>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="n">
+        <v>357217584</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>11241605</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>123644864</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2024-12</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>45537948</v>
+      </c>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="n">
+        <v>526412573</v>
+      </c>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="n">
+        <v>33238139</v>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="n">
+        <v>390574650</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>12299809</v>
+      </c>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>135837922</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>2025-01</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
         <v>54866046</v>
       </c>
       <c r="C14" t="n">
         <v>0.1263528910370584</v>
       </c>
       <c r="D14" t="n">
+        <v>54866046</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.1263528910370584</v>
+      </c>
+      <c r="F14" t="n">
         <v>44063136</v>
       </c>
-      <c r="E14" t="n">
+      <c r="G14" t="n">
         <v>0.2015483327140137</v>
       </c>
-      <c r="F14" t="n">
+      <c r="H14" t="n">
+        <v>44063136</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.2015483327140137</v>
+      </c>
+      <c r="J14" t="n">
         <v>10802910</v>
       </c>
-      <c r="G14" t="n">
+      <c r="K14" t="n">
+        <v>-0.1026943812900377</v>
+      </c>
+      <c r="L14" t="n">
+        <v>10802910</v>
+      </c>
+      <c r="M14" t="n">
         <v>-0.1026943812900377</v>
       </c>
     </row>
@@ -2911,16 +8100,34 @@
         <v>-0.102188135020835</v>
       </c>
       <c r="D15" t="n">
+        <v>84471658</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.03409523939171577</v>
+      </c>
+      <c r="F15" t="n">
         <v>19260406</v>
       </c>
-      <c r="E15" t="n">
+      <c r="G15" t="n">
         <v>-0.1711737911226408</v>
       </c>
-      <c r="F15" t="n">
+      <c r="H15" t="n">
+        <v>63323542</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.05697543400669303</v>
+      </c>
+      <c r="J15" t="n">
         <v>10345206</v>
       </c>
-      <c r="G15" t="n">
+      <c r="K15" t="n">
         <v>0.06244996597044117</v>
+      </c>
+      <c r="L15" t="n">
+        <v>21148116</v>
+      </c>
+      <c r="M15" t="n">
+        <v>-0.02885160081556182</v>
       </c>
     </row>
     <row r="16">
@@ -2936,16 +8143,34 @@
         <v>0.1513632674742884</v>
       </c>
       <c r="D16" t="n">
+        <v>129322341</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.07187118450148078</v>
+      </c>
+      <c r="F16" t="n">
         <v>33749651</v>
       </c>
-      <c r="E16" t="n">
+      <c r="G16" t="n">
         <v>0.2249300857118757</v>
       </c>
-      <c r="F16" t="n">
+      <c r="H16" t="n">
+        <v>97075374</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.1099032798050072</v>
+      </c>
+      <c r="J16" t="n">
         <v>11117047</v>
       </c>
-      <c r="G16" t="n">
+      <c r="K16" t="n">
         <v>-0.02618864355230022</v>
+      </c>
+      <c r="L16" t="n">
+        <v>32246967</v>
+      </c>
+      <c r="M16" t="n">
+        <v>-0.0283574559879104</v>
       </c>
     </row>
     <row r="17">
@@ -2961,16 +8186,34 @@
         <v>0.04885382641190894</v>
       </c>
       <c r="D17" t="n">
+        <v>174774089</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.06564732713130161</v>
+      </c>
+      <c r="F17" t="n">
         <v>34080722</v>
       </c>
-      <c r="E17" t="n">
+      <c r="G17" t="n">
         <v>0.05894096526079173</v>
       </c>
-      <c r="F17" t="n">
+      <c r="H17" t="n">
+        <v>131148838</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.09618296265666482</v>
+      </c>
+      <c r="J17" t="n">
         <v>11394984</v>
       </c>
-      <c r="G17" t="n">
+      <c r="K17" t="n">
         <v>0.01979971445567896</v>
+      </c>
+      <c r="L17" t="n">
+        <v>43625252</v>
+      </c>
+      <c r="M17" t="n">
+        <v>-0.01669769526315645</v>
       </c>
     </row>
     <row r="18">
@@ -2986,16 +8229,34 @@
         <v>0.05747472233265394</v>
       </c>
       <c r="D18" t="n">
+        <v>223902206</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.06369576468738924</v>
+      </c>
+      <c r="F18" t="n">
         <v>38007371</v>
       </c>
-      <c r="E18" t="n">
+      <c r="G18" t="n">
         <v>0.08970850933132835</v>
       </c>
-      <c r="F18" t="n">
+      <c r="H18" t="n">
+        <v>169157644</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.09484902539442408</v>
+      </c>
+      <c r="J18" t="n">
         <v>11164513</v>
       </c>
-      <c r="G18" t="n">
+      <c r="K18" t="n">
         <v>-0.03927063304715861</v>
+      </c>
+      <c r="L18" t="n">
+        <v>54744561</v>
+      </c>
+      <c r="M18" t="n">
+        <v>-0.02226880356300287</v>
       </c>
     </row>
     <row r="19">
@@ -3011,16 +8272,1466 @@
         <v>0.07210165959115811</v>
       </c>
       <c r="D19" t="n">
+        <v>273269025</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.06557538521202333</v>
+      </c>
+      <c r="F19" t="n">
         <v>38189267</v>
       </c>
+      <c r="G19" t="n">
+        <v>0.0669927273508566</v>
+      </c>
+      <c r="H19" t="n">
+        <v>207342415</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.09016805112295456</v>
+      </c>
+      <c r="J19" t="n">
+        <v>11185231</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0.08991968378657855</v>
+      </c>
+      <c r="L19" t="n">
+        <v>65926610</v>
+      </c>
+      <c r="M19" t="n">
+        <v>-0.005016586123147926</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:M19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>进出口_当月</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>进出口_当月同比</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>进出口_年初至今</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>进出口_年初至今同比</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>进口_当月</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>进口_当月同比</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>进口_年初至今</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>进口_年初至今同比</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>出口_当月</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>出口_当月同比</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>出口_年初至今</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>出口_年初至今同比</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2024-01</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>7102012</v>
+      </c>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="n">
+        <v>7102012</v>
+      </c>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="n">
+        <v>4816723</v>
+      </c>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="n">
+        <v>4816723</v>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="n">
+        <v>2285289</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>2285289</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2024-02</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>5357777</v>
+      </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="n">
+        <v>12459789</v>
+      </c>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="n">
+        <v>3405285</v>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="n">
+        <v>8222007</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>1952493</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>4237782</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2024-03</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>6408890</v>
+      </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="n">
+        <v>18871001</v>
+      </c>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="n">
+        <v>4037191</v>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="n">
+        <v>12258917</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>2371699</v>
+      </c>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>6612085</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2024-04</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>6865560</v>
+      </c>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="n">
+        <v>25730667</v>
+      </c>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="n">
+        <v>4480190</v>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="n">
+        <v>16738100</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>2385370</v>
+      </c>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>8992568</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2024-05</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>7227057</v>
+      </c>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="n">
+        <v>32945260</v>
+      </c>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="n">
+        <v>5020270</v>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="n">
+        <v>21757062</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>2206787</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>11188198</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2024-06</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>7691842</v>
+      </c>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="n">
+        <v>40631725</v>
+      </c>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="n">
+        <v>5636078</v>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="n">
+        <v>27392206</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>2055763</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>13239519</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2024-07</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>7352401</v>
+      </c>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="n">
+        <v>47959227</v>
+      </c>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="n">
+        <v>5227219</v>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="n">
+        <v>32607279</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>2125183</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>15351949</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2024-08</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>7606939</v>
+      </c>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="n">
+        <v>55574381</v>
+      </c>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="n">
+        <v>5532626</v>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="n">
+        <v>38138254</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>2074313</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>17436127</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2024-09</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>7347235</v>
+      </c>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="n">
+        <v>62919412</v>
+      </c>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="n">
+        <v>5196885</v>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="n">
+        <v>43330219</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>2150350</v>
+      </c>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>19589193</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2024-10</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>7385977</v>
+      </c>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="n">
+        <v>70297641</v>
+      </c>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="n">
+        <v>5346964</v>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="n">
+        <v>48675238</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>2039013</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>21622404</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2024-11</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>7373313</v>
+      </c>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="n">
+        <v>77782615</v>
+      </c>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="n">
+        <v>5183155</v>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="n">
+        <v>53990502</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>2190158</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>23792113</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2024-12</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>7743066</v>
+      </c>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="n">
+        <v>85493957</v>
+      </c>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="n">
+        <v>5483020</v>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="n">
+        <v>59495399</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>2260046</v>
+      </c>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>25998558</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>2025-01</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>8243032</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.1606615139484417</v>
+      </c>
+      <c r="D14" t="n">
+        <v>8243032</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.1606615139484417</v>
+      </c>
+      <c r="F14" t="n">
+        <v>6056239</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.2573359522646412</v>
+      </c>
+      <c r="H14" t="n">
+        <v>6056239</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.2573359522646412</v>
+      </c>
+      <c r="J14" t="n">
+        <v>2186793</v>
+      </c>
+      <c r="K14" t="n">
+        <v>-0.04310001929734053</v>
+      </c>
+      <c r="L14" t="n">
+        <v>2186793</v>
+      </c>
+      <c r="M14" t="n">
+        <v>-0.04310001929734053</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>2025-02</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>5328958</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-0.005378909947166499</v>
+      </c>
+      <c r="D15" t="n">
+        <v>13571991</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.0892633093545967</v>
+      </c>
+      <c r="F15" t="n">
+        <v>3413293</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.0023516387027811</v>
+      </c>
+      <c r="H15" t="n">
+        <v>9469531</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.1517298635235897</v>
+      </c>
+      <c r="J15" t="n">
+        <v>1915666</v>
+      </c>
+      <c r="K15" t="n">
+        <v>-0.01886152728844614</v>
+      </c>
+      <c r="L15" t="n">
+        <v>4102459</v>
+      </c>
+      <c r="M15" t="n">
+        <v>-0.03193250620253707</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2025-03</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>7465810</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.1649146732117419</v>
+      </c>
+      <c r="D16" t="n">
+        <v>21034066</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.1146237552528349</v>
+      </c>
+      <c r="F16" t="n">
+        <v>5235919</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.2969212999830824</v>
+      </c>
+      <c r="H16" t="n">
+        <v>14705015</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.1995362233058597</v>
+      </c>
+      <c r="J16" t="n">
+        <v>2229891</v>
+      </c>
+      <c r="K16" t="n">
+        <v>-0.05979173579783947</v>
+      </c>
+      <c r="L16" t="n">
+        <v>6329051</v>
+      </c>
+      <c r="M16" t="n">
+        <v>-0.0428055598196333</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>2025-04</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>7261920</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.05773163441875107</v>
+      </c>
+      <c r="D17" t="n">
+        <v>28292402</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.09955960333247482</v>
+      </c>
+      <c r="F17" t="n">
+        <v>5051424</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.12750218182711</v>
+      </c>
+      <c r="H17" t="n">
+        <v>19755655</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.1802806172743621</v>
+      </c>
+      <c r="J17" t="n">
+        <v>2210497</v>
+      </c>
+      <c r="K17" t="n">
+        <v>-0.07331063943958382</v>
+      </c>
+      <c r="L17" t="n">
+        <v>8536748</v>
+      </c>
+      <c r="M17" t="n">
+        <v>-0.05068852412347613</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>2025-05</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>7574587</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.04808734731163744</v>
+      </c>
+      <c r="D18" t="n">
+        <v>35859026</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.08844264698472548</v>
+      </c>
+      <c r="F18" t="n">
+        <v>5415266</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.07868023034617666</v>
+      </c>
+      <c r="H18" t="n">
+        <v>25168563</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.156799709446064</v>
+      </c>
+      <c r="J18" t="n">
+        <v>2159321</v>
+      </c>
+      <c r="K18" t="n">
+        <v>-0.02150909897511633</v>
+      </c>
+      <c r="L18" t="n">
+        <v>10690463</v>
+      </c>
+      <c r="M18" t="n">
+        <v>-0.04448750370703125</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>2025-06</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>7800331</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.01410442388182176</v>
+      </c>
+      <c r="D19" t="n">
+        <v>43659952</v>
+      </c>
       <c r="E19" t="n">
-        <v>0.0669927273508566</v>
+        <v>0.0745286349521217</v>
       </c>
       <c r="F19" t="n">
-        <v>11185231</v>
+        <v>5814769</v>
       </c>
       <c r="G19" t="n">
-        <v>0.08991968378657855</v>
+        <v>0.0317048486553948</v>
+      </c>
+      <c r="H19" t="n">
+        <v>30982473</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.1310689252263948</v>
+      </c>
+      <c r="J19" t="n">
+        <v>1985562</v>
+      </c>
+      <c r="K19" t="n">
+        <v>-0.03414839161907279</v>
+      </c>
+      <c r="L19" t="n">
+        <v>12677479</v>
+      </c>
+      <c r="M19" t="n">
+        <v>-0.0424516932979212</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:M19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>进出口_当月</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>进出口_当月同比</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>进出口_年初至今</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>进出口_年初至今同比</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>进口_当月</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>进口_当月同比</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>进口_年初至今</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>进口_年初至今同比</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>出口_当月</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>出口_当月同比</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>出口_年初至今</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>出口_年初至今同比</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2024-01</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>12504912</v>
+      </c>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="n">
+        <v>12504912</v>
+      </c>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="n">
+        <v>8373037</v>
+      </c>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="n">
+        <v>8373037</v>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="n">
+        <v>4131874</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>4131874</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2024-02</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>9278513</v>
+      </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="n">
+        <v>21783425</v>
+      </c>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="n">
+        <v>5704157</v>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="n">
+        <v>14077194</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>3574357</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>7706231</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2024-03</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>10410765</v>
+      </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="n">
+        <v>32189194</v>
+      </c>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="n">
+        <v>6253296</v>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="n">
+        <v>20329666</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>4157469</v>
+      </c>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>11859528</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2024-04</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>11466661</v>
+      </c>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="n">
+        <v>43648455</v>
+      </c>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="n">
+        <v>7459631</v>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="n">
+        <v>27781314</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>4007030</v>
+      </c>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>15867141</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2024-05</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>12434480</v>
+      </c>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="n">
+        <v>56094836</v>
+      </c>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="n">
+        <v>8387332</v>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="n">
+        <v>36166471</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>4047148</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>19928365</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2024-06</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>12004210</v>
+      </c>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="n">
+        <v>68114476</v>
+      </c>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="n">
+        <v>8368689</v>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="n">
+        <v>44531530</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>3635521</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>23582946</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2024-07</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>12567556</v>
+      </c>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="n">
+        <v>80685003</v>
+      </c>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="n">
+        <v>8270832</v>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="n">
+        <v>52800940</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>4296724</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>27884063</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2024-08</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>12839446</v>
+      </c>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="n">
+        <v>93448802</v>
+      </c>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="n">
+        <v>9020094</v>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="n">
+        <v>61819669</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>3819352</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>31629133</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2024-09</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>11975434</v>
+      </c>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="n">
+        <v>105371774</v>
+      </c>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="n">
+        <v>7948161</v>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="n">
+        <v>69763577</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>4027273</v>
+      </c>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>35608197</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2024-10</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>12240978</v>
+      </c>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="n">
+        <v>117567314</v>
+      </c>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="n">
+        <v>8380882</v>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="n">
+        <v>78140970</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>3860096</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>39426344</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2024-11</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>11657066</v>
+      </c>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="n">
+        <v>129219839</v>
+      </c>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="n">
+        <v>7884957</v>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="n">
+        <v>86031380</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>3772109</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>43188459</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2024-12</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>12834764</v>
+      </c>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="n">
+        <v>142025159</v>
+      </c>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="n">
+        <v>8524621</v>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="n">
+        <v>94553224</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>4310143</v>
+      </c>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>47471935</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>2025-01</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>14780734</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.1819942435420576</v>
+      </c>
+      <c r="D14" t="n">
+        <v>14780734</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.1819942435420576</v>
+      </c>
+      <c r="F14" t="n">
+        <v>11029555</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.3172705435315764</v>
+      </c>
+      <c r="H14" t="n">
+        <v>11029555</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.3172705435315764</v>
+      </c>
+      <c r="J14" t="n">
+        <v>3751179</v>
+      </c>
+      <c r="K14" t="n">
+        <v>-0.09213615904066774</v>
+      </c>
+      <c r="L14" t="n">
+        <v>3751179</v>
+      </c>
+      <c r="M14" t="n">
+        <v>-0.09213615904066774</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>2025-02</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>8606774</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-0.07239726882960662</v>
+      </c>
+      <c r="D15" t="n">
+        <v>23387508</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.07363777734676713</v>
+      </c>
+      <c r="F15" t="n">
+        <v>4934775</v>
+      </c>
+      <c r="G15" t="n">
+        <v>-0.1348809298201294</v>
+      </c>
+      <c r="H15" t="n">
+        <v>15964330</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.1340562614964318</v>
+      </c>
+      <c r="J15" t="n">
+        <v>3671998</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0.02731708108619246</v>
+      </c>
+      <c r="L15" t="n">
+        <v>7423177</v>
+      </c>
+      <c r="M15" t="n">
+        <v>-0.03673053662678938</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2025-03</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>11500252</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.1046500425280947</v>
+      </c>
+      <c r="D16" t="n">
+        <v>34885173</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.08375416296537286</v>
+      </c>
+      <c r="F16" t="n">
+        <v>7816313</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.2499509058902698</v>
+      </c>
+      <c r="H16" t="n">
+        <v>23780259</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.1697319080402009</v>
+      </c>
+      <c r="J16" t="n">
+        <v>3683940</v>
+      </c>
+      <c r="K16" t="n">
+        <v>-0.1138983838484424</v>
+      </c>
+      <c r="L16" t="n">
+        <v>11104914</v>
+      </c>
+      <c r="M16" t="n">
+        <v>-0.06362934511390339</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>2025-04</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>12373037</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.07904445766731927</v>
+      </c>
+      <c r="D17" t="n">
+        <v>47244515</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.08238687944395751</v>
+      </c>
+      <c r="F17" t="n">
+        <v>8325072</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.1160165965313833</v>
+      </c>
+      <c r="H17" t="n">
+        <v>32103153</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.1555663997750429</v>
+      </c>
+      <c r="J17" t="n">
+        <v>4047965</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0.01021579573898879</v>
+      </c>
+      <c r="L17" t="n">
+        <v>15141362</v>
+      </c>
+      <c r="M17" t="n">
+        <v>-0.04574100652411173</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>2025-05</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>12461754</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.002193417014623833</v>
+      </c>
+      <c r="D18" t="n">
+        <v>59683133</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.06396840165465489</v>
+      </c>
+      <c r="F18" t="n">
+        <v>8460679</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.008744973967883984</v>
+      </c>
+      <c r="H18" t="n">
+        <v>40561106</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.121511302554236</v>
+      </c>
+      <c r="J18" t="n">
+        <v>4001074</v>
+      </c>
+      <c r="K18" t="n">
+        <v>-0.01138431310147292</v>
+      </c>
+      <c r="L18" t="n">
+        <v>19122027</v>
+      </c>
+      <c r="M18" t="n">
+        <v>-0.04046182413860844</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>2025-06</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>12499446</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.04125519296979974</v>
+      </c>
+      <c r="D19" t="n">
+        <v>72179698</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.05968220323679807</v>
+      </c>
+      <c r="F19" t="n">
+        <v>8484446</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.01383215459434561</v>
+      </c>
+      <c r="H19" t="n">
+        <v>49043562</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.10132218677418</v>
+      </c>
+      <c r="J19" t="n">
+        <v>4015000</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0.1043809126669877</v>
+      </c>
+      <c r="L19" t="n">
+        <v>23136136</v>
+      </c>
+      <c r="M19" t="n">
+        <v>-0.01894631824200421</v>
       </c>
     </row>
   </sheetData>
